--- a/DOC/基本設計/基本設計_emsm_社員情報新規登録.xlsx
+++ b/DOC/基本設計/基本設計_emsm_社員情報新規登録.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B365B-0ADA-4632-8AF7-92318807CEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0528F24-7EF4-448E-89A5-6611B6627EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="833" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -328,10 +328,6 @@
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>空白の時"メールを入力してください。"　とメッセージ表示</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -644,6 +640,10 @@
     <rPh sb="41" eb="43">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"メールを入力してください。"　とメッセージ表示</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2319,7 +2319,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="88"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="404">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2678,6 +2678,778 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="3" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2687,756 +3459,23 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="3" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="3" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="3" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="112" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="106" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="108" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="110" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3456,58 +3495,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4439,16 +4427,16 @@
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
-      <c r="I15" s="135" t="s">
+      <c r="I15" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="135"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="136"/>
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -4461,54 +4449,54 @@
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
-      <c r="G18" s="136" t="s">
+      <c r="G18" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="137"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
-      <c r="G19" s="139" t="s">
+      <c r="G19" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="141"/>
+      <c r="R19" s="142"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="144"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="145"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -4517,54 +4505,54 @@
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
-      <c r="G22" s="136" t="s">
+      <c r="G22" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
-      <c r="Q22" s="145"/>
-      <c r="R22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="147"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
-      <c r="G23" s="139" t="s">
+      <c r="G23" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="148"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="148"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="149"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="150"/>
-      <c r="O24" s="150"/>
-      <c r="P24" s="150"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="151"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="151"/>
+      <c r="P24" s="151"/>
+      <c r="Q24" s="151"/>
+      <c r="R24" s="152"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.45">
@@ -5558,34 +5546,34 @@
       <c r="BN1" s="72"/>
     </row>
     <row r="2" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
       <c r="AA2" s="61"/>
       <c r="AB2" s="61"/>
       <c r="AC2" s="61"/>
@@ -5628,32 +5616,32 @@
       <c r="BN2" s="75"/>
     </row>
     <row r="3" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="182"/>
-      <c r="B3" s="183"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="183"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="183"/>
-      <c r="U3" s="183"/>
-      <c r="V3" s="183"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="183"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="183"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="154"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="154"/>
+      <c r="S3" s="154"/>
+      <c r="T3" s="154"/>
+      <c r="U3" s="154"/>
+      <c r="V3" s="154"/>
+      <c r="W3" s="154"/>
+      <c r="X3" s="154"/>
+      <c r="Y3" s="154"/>
+      <c r="Z3" s="154"/>
       <c r="AA3" s="61"/>
       <c r="AB3" s="61"/>
       <c r="AC3" s="61"/>
@@ -5696,166 +5684,166 @@
       <c r="BN3" s="76"/>
     </row>
     <row r="4" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="187" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="157"/>
+      <c r="G4" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="188"/>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="190" t="s">
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="191"/>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="192"/>
-      <c r="U4" s="193" t="s">
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
-      <c r="AD4" s="194"/>
-      <c r="AE4" s="194"/>
-      <c r="AF4" s="194"/>
-      <c r="AG4" s="194"/>
-      <c r="AH4" s="194"/>
-      <c r="AI4" s="194"/>
-      <c r="AJ4" s="194"/>
-      <c r="AK4" s="194"/>
-      <c r="AL4" s="194"/>
-      <c r="AM4" s="194"/>
-      <c r="AN4" s="194"/>
-      <c r="AO4" s="194"/>
-      <c r="AP4" s="194"/>
-      <c r="AQ4" s="194"/>
-      <c r="AR4" s="194"/>
-      <c r="AS4" s="194"/>
-      <c r="AT4" s="194"/>
-      <c r="AU4" s="194"/>
-      <c r="AV4" s="195"/>
-      <c r="AW4" s="163" t="s">
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="165"/>
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="166"/>
+      <c r="AW4" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="164"/>
-      <c r="AY4" s="165"/>
-      <c r="AZ4" s="166">
+      <c r="AX4" s="168"/>
+      <c r="AY4" s="169"/>
+      <c r="AZ4" s="170">
         <v>45425</v>
       </c>
-      <c r="BA4" s="167"/>
-      <c r="BB4" s="167"/>
-      <c r="BC4" s="167"/>
-      <c r="BD4" s="167"/>
-      <c r="BE4" s="167"/>
-      <c r="BF4" s="163" t="s">
+      <c r="BA4" s="171"/>
+      <c r="BB4" s="171"/>
+      <c r="BC4" s="171"/>
+      <c r="BD4" s="171"/>
+      <c r="BE4" s="171"/>
+      <c r="BF4" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="164"/>
-      <c r="BH4" s="165"/>
-      <c r="BI4" s="168" t="s">
+      <c r="BG4" s="168"/>
+      <c r="BH4" s="169"/>
+      <c r="BI4" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="BJ4" s="167"/>
-      <c r="BK4" s="167"/>
-      <c r="BL4" s="167"/>
-      <c r="BM4" s="167"/>
-      <c r="BN4" s="169"/>
+      <c r="BJ4" s="171"/>
+      <c r="BK4" s="171"/>
+      <c r="BL4" s="171"/>
+      <c r="BM4" s="171"/>
+      <c r="BN4" s="173"/>
     </row>
     <row r="5" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
-      <c r="G5" s="173" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="170" t="s">
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="177"/>
+      <c r="L5" s="177"/>
+      <c r="M5" s="177"/>
+      <c r="N5" s="178"/>
+      <c r="O5" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="171"/>
-      <c r="Q5" s="171"/>
-      <c r="R5" s="171"/>
-      <c r="S5" s="171"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="176"/>
-      <c r="W5" s="176"/>
-      <c r="X5" s="176"/>
-      <c r="Y5" s="176"/>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="176"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="176"/>
-      <c r="AH5" s="176"/>
-      <c r="AI5" s="176"/>
-      <c r="AJ5" s="176"/>
-      <c r="AK5" s="176"/>
-      <c r="AL5" s="176"/>
-      <c r="AM5" s="176"/>
-      <c r="AN5" s="176"/>
-      <c r="AO5" s="176"/>
-      <c r="AP5" s="176"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="176"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="176"/>
-      <c r="AU5" s="176"/>
-      <c r="AV5" s="177"/>
-      <c r="AW5" s="178" t="s">
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="175"/>
+      <c r="S5" s="175"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="179"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="180"/>
+      <c r="AM5" s="180"/>
+      <c r="AN5" s="180"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
+      <c r="AQ5" s="180"/>
+      <c r="AR5" s="180"/>
+      <c r="AS5" s="180"/>
+      <c r="AT5" s="180"/>
+      <c r="AU5" s="180"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="178"/>
-      <c r="AY5" s="179"/>
-      <c r="AZ5" s="178"/>
-      <c r="BA5" s="178"/>
-      <c r="BB5" s="178"/>
-      <c r="BC5" s="178"/>
-      <c r="BD5" s="178"/>
-      <c r="BE5" s="178"/>
-      <c r="BF5" s="180" t="s">
+      <c r="AX5" s="182"/>
+      <c r="AY5" s="183"/>
+      <c r="AZ5" s="182"/>
+      <c r="BA5" s="182"/>
+      <c r="BB5" s="182"/>
+      <c r="BC5" s="182"/>
+      <c r="BD5" s="182"/>
+      <c r="BE5" s="182"/>
+      <c r="BF5" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="178"/>
-      <c r="BH5" s="179"/>
-      <c r="BI5" s="178"/>
-      <c r="BJ5" s="181"/>
-      <c r="BK5" s="181"/>
-      <c r="BL5" s="181"/>
-      <c r="BM5" s="181"/>
-      <c r="BN5" s="177"/>
+      <c r="BG5" s="182"/>
+      <c r="BH5" s="183"/>
+      <c r="BI5" s="182"/>
+      <c r="BJ5" s="185"/>
+      <c r="BK5" s="185"/>
+      <c r="BL5" s="185"/>
+      <c r="BM5" s="185"/>
+      <c r="BN5" s="181"/>
     </row>
     <row r="6" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="77"/>
@@ -5906,25 +5894,25 @@
       <c r="AT6" s="61"/>
       <c r="AU6" s="61"/>
       <c r="AV6" s="66"/>
-      <c r="AW6" s="157" t="s">
+      <c r="AW6" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="158"/>
-      <c r="AY6" s="158"/>
-      <c r="AZ6" s="158"/>
-      <c r="BA6" s="158"/>
-      <c r="BB6" s="158"/>
-      <c r="BC6" s="158"/>
-      <c r="BD6" s="158"/>
-      <c r="BE6" s="158"/>
-      <c r="BF6" s="158"/>
-      <c r="BG6" s="158"/>
-      <c r="BH6" s="158"/>
-      <c r="BI6" s="158"/>
-      <c r="BJ6" s="158"/>
-      <c r="BK6" s="158"/>
-      <c r="BL6" s="158"/>
-      <c r="BM6" s="159"/>
+      <c r="AX6" s="187"/>
+      <c r="AY6" s="187"/>
+      <c r="AZ6" s="187"/>
+      <c r="BA6" s="187"/>
+      <c r="BB6" s="187"/>
+      <c r="BC6" s="187"/>
+      <c r="BD6" s="187"/>
+      <c r="BE6" s="187"/>
+      <c r="BF6" s="187"/>
+      <c r="BG6" s="187"/>
+      <c r="BH6" s="187"/>
+      <c r="BI6" s="187"/>
+      <c r="BJ6" s="187"/>
+      <c r="BK6" s="187"/>
+      <c r="BL6" s="187"/>
+      <c r="BM6" s="188"/>
       <c r="BN6" s="66"/>
     </row>
     <row r="7" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -5976,23 +5964,23 @@
       <c r="AT7" s="61"/>
       <c r="AU7" s="61"/>
       <c r="AV7" s="66"/>
-      <c r="AW7" s="160"/>
-      <c r="AX7" s="161"/>
-      <c r="AY7" s="161"/>
-      <c r="AZ7" s="161"/>
-      <c r="BA7" s="161"/>
-      <c r="BB7" s="161"/>
-      <c r="BC7" s="161"/>
-      <c r="BD7" s="161"/>
-      <c r="BE7" s="161"/>
-      <c r="BF7" s="161"/>
-      <c r="BG7" s="161"/>
-      <c r="BH7" s="161"/>
-      <c r="BI7" s="161"/>
-      <c r="BJ7" s="161"/>
-      <c r="BK7" s="161"/>
-      <c r="BL7" s="161"/>
-      <c r="BM7" s="162"/>
+      <c r="AW7" s="189"/>
+      <c r="AX7" s="190"/>
+      <c r="AY7" s="190"/>
+      <c r="AZ7" s="190"/>
+      <c r="BA7" s="190"/>
+      <c r="BB7" s="190"/>
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="190"/>
+      <c r="BE7" s="190"/>
+      <c r="BF7" s="190"/>
+      <c r="BG7" s="190"/>
+      <c r="BH7" s="190"/>
+      <c r="BI7" s="190"/>
+      <c r="BJ7" s="190"/>
+      <c r="BK7" s="190"/>
+      <c r="BL7" s="190"/>
+      <c r="BM7" s="191"/>
       <c r="BN7" s="66"/>
     </row>
     <row r="8" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6054,15 +6042,15 @@
       <c r="BB8" s="61"/>
       <c r="BC8" s="61"/>
       <c r="BD8" s="61"/>
-      <c r="BE8" s="156"/>
-      <c r="BF8" s="154"/>
-      <c r="BG8" s="154"/>
-      <c r="BH8" s="154"/>
-      <c r="BI8" s="154"/>
-      <c r="BJ8" s="154"/>
-      <c r="BK8" s="154"/>
-      <c r="BL8" s="154"/>
-      <c r="BM8" s="155"/>
+      <c r="BE8" s="192"/>
+      <c r="BF8" s="193"/>
+      <c r="BG8" s="193"/>
+      <c r="BH8" s="193"/>
+      <c r="BI8" s="193"/>
+      <c r="BJ8" s="193"/>
+      <c r="BK8" s="193"/>
+      <c r="BL8" s="193"/>
+      <c r="BM8" s="194"/>
       <c r="BN8" s="66"/>
     </row>
     <row r="9" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -6124,15 +6112,15 @@
       <c r="BB9" s="61"/>
       <c r="BC9" s="61"/>
       <c r="BD9" s="61"/>
-      <c r="BE9" s="156"/>
-      <c r="BF9" s="154"/>
-      <c r="BG9" s="154"/>
-      <c r="BH9" s="154"/>
-      <c r="BI9" s="154"/>
-      <c r="BJ9" s="154"/>
-      <c r="BK9" s="154"/>
-      <c r="BL9" s="154"/>
-      <c r="BM9" s="155"/>
+      <c r="BE9" s="192"/>
+      <c r="BF9" s="193"/>
+      <c r="BG9" s="193"/>
+      <c r="BH9" s="193"/>
+      <c r="BI9" s="193"/>
+      <c r="BJ9" s="193"/>
+      <c r="BK9" s="193"/>
+      <c r="BL9" s="193"/>
+      <c r="BM9" s="194"/>
       <c r="BN9" s="66"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7280,15 +7268,15 @@
       <c r="BB26" s="61"/>
       <c r="BC26" s="61"/>
       <c r="BD26" s="61"/>
-      <c r="BE26" s="156"/>
-      <c r="BF26" s="154"/>
-      <c r="BG26" s="154"/>
-      <c r="BH26" s="154"/>
-      <c r="BI26" s="154"/>
-      <c r="BJ26" s="154"/>
-      <c r="BK26" s="154"/>
-      <c r="BL26" s="154"/>
-      <c r="BM26" s="155"/>
+      <c r="BE26" s="192"/>
+      <c r="BF26" s="193"/>
+      <c r="BG26" s="193"/>
+      <c r="BH26" s="193"/>
+      <c r="BI26" s="193"/>
+      <c r="BJ26" s="193"/>
+      <c r="BK26" s="193"/>
+      <c r="BL26" s="193"/>
+      <c r="BM26" s="194"/>
       <c r="BN26" s="66"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7348,15 +7336,15 @@
       <c r="BB27" s="61"/>
       <c r="BC27" s="61"/>
       <c r="BD27" s="61"/>
-      <c r="BE27" s="156"/>
-      <c r="BF27" s="154"/>
-      <c r="BG27" s="154"/>
-      <c r="BH27" s="154"/>
-      <c r="BI27" s="154"/>
-      <c r="BJ27" s="154"/>
-      <c r="BK27" s="154"/>
-      <c r="BL27" s="154"/>
-      <c r="BM27" s="155"/>
+      <c r="BE27" s="192"/>
+      <c r="BF27" s="193"/>
+      <c r="BG27" s="193"/>
+      <c r="BH27" s="193"/>
+      <c r="BI27" s="193"/>
+      <c r="BJ27" s="193"/>
+      <c r="BK27" s="193"/>
+      <c r="BL27" s="193"/>
+      <c r="BM27" s="194"/>
       <c r="BN27" s="66"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7416,15 +7404,15 @@
       <c r="BB28" s="61"/>
       <c r="BC28" s="61"/>
       <c r="BD28" s="61"/>
-      <c r="BE28" s="156"/>
-      <c r="BF28" s="154"/>
-      <c r="BG28" s="154"/>
-      <c r="BH28" s="154"/>
-      <c r="BI28" s="154"/>
-      <c r="BJ28" s="154"/>
-      <c r="BK28" s="154"/>
-      <c r="BL28" s="154"/>
-      <c r="BM28" s="155"/>
+      <c r="BE28" s="192"/>
+      <c r="BF28" s="193"/>
+      <c r="BG28" s="193"/>
+      <c r="BH28" s="193"/>
+      <c r="BI28" s="193"/>
+      <c r="BJ28" s="193"/>
+      <c r="BK28" s="193"/>
+      <c r="BL28" s="193"/>
+      <c r="BM28" s="194"/>
       <c r="BN28" s="66"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7484,15 +7472,15 @@
       <c r="BB29" s="61"/>
       <c r="BC29" s="61"/>
       <c r="BD29" s="61"/>
-      <c r="BE29" s="156"/>
-      <c r="BF29" s="154"/>
-      <c r="BG29" s="154"/>
-      <c r="BH29" s="154"/>
-      <c r="BI29" s="154"/>
-      <c r="BJ29" s="154"/>
-      <c r="BK29" s="154"/>
-      <c r="BL29" s="154"/>
-      <c r="BM29" s="155"/>
+      <c r="BE29" s="192"/>
+      <c r="BF29" s="193"/>
+      <c r="BG29" s="193"/>
+      <c r="BH29" s="193"/>
+      <c r="BI29" s="193"/>
+      <c r="BJ29" s="193"/>
+      <c r="BK29" s="193"/>
+      <c r="BL29" s="193"/>
+      <c r="BM29" s="194"/>
       <c r="BN29" s="66"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7552,15 +7540,15 @@
       <c r="BB30" s="61"/>
       <c r="BC30" s="61"/>
       <c r="BD30" s="61"/>
-      <c r="BE30" s="154"/>
-      <c r="BF30" s="154"/>
-      <c r="BG30" s="154"/>
-      <c r="BH30" s="154"/>
-      <c r="BI30" s="154"/>
-      <c r="BJ30" s="154"/>
-      <c r="BK30" s="154"/>
-      <c r="BL30" s="154"/>
-      <c r="BM30" s="155"/>
+      <c r="BE30" s="193"/>
+      <c r="BF30" s="193"/>
+      <c r="BG30" s="193"/>
+      <c r="BH30" s="193"/>
+      <c r="BI30" s="193"/>
+      <c r="BJ30" s="193"/>
+      <c r="BK30" s="193"/>
+      <c r="BL30" s="193"/>
+      <c r="BM30" s="194"/>
       <c r="BN30" s="66"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7620,15 +7608,15 @@
       <c r="BB31" s="61"/>
       <c r="BC31" s="61"/>
       <c r="BD31" s="61"/>
-      <c r="BE31" s="154"/>
-      <c r="BF31" s="154"/>
-      <c r="BG31" s="154"/>
-      <c r="BH31" s="154"/>
-      <c r="BI31" s="154"/>
-      <c r="BJ31" s="154"/>
-      <c r="BK31" s="154"/>
-      <c r="BL31" s="154"/>
-      <c r="BM31" s="155"/>
+      <c r="BE31" s="193"/>
+      <c r="BF31" s="193"/>
+      <c r="BG31" s="193"/>
+      <c r="BH31" s="193"/>
+      <c r="BI31" s="193"/>
+      <c r="BJ31" s="193"/>
+      <c r="BK31" s="193"/>
+      <c r="BL31" s="193"/>
+      <c r="BM31" s="194"/>
       <c r="BN31" s="66"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7688,15 +7676,15 @@
       <c r="BB32" s="61"/>
       <c r="BC32" s="61"/>
       <c r="BD32" s="61"/>
-      <c r="BE32" s="154"/>
-      <c r="BF32" s="154"/>
-      <c r="BG32" s="154"/>
-      <c r="BH32" s="154"/>
-      <c r="BI32" s="154"/>
-      <c r="BJ32" s="154"/>
-      <c r="BK32" s="154"/>
-      <c r="BL32" s="154"/>
-      <c r="BM32" s="155"/>
+      <c r="BE32" s="193"/>
+      <c r="BF32" s="193"/>
+      <c r="BG32" s="193"/>
+      <c r="BH32" s="193"/>
+      <c r="BI32" s="193"/>
+      <c r="BJ32" s="193"/>
+      <c r="BK32" s="193"/>
+      <c r="BL32" s="193"/>
+      <c r="BM32" s="194"/>
       <c r="BN32" s="66"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7756,15 +7744,15 @@
       <c r="BB33" s="61"/>
       <c r="BC33" s="61"/>
       <c r="BD33" s="61"/>
-      <c r="BE33" s="156"/>
-      <c r="BF33" s="154"/>
-      <c r="BG33" s="154"/>
-      <c r="BH33" s="154"/>
-      <c r="BI33" s="154"/>
-      <c r="BJ33" s="154"/>
-      <c r="BK33" s="154"/>
-      <c r="BL33" s="154"/>
-      <c r="BM33" s="155"/>
+      <c r="BE33" s="192"/>
+      <c r="BF33" s="193"/>
+      <c r="BG33" s="193"/>
+      <c r="BH33" s="193"/>
+      <c r="BI33" s="193"/>
+      <c r="BJ33" s="193"/>
+      <c r="BK33" s="193"/>
+      <c r="BL33" s="193"/>
+      <c r="BM33" s="194"/>
       <c r="BN33" s="66"/>
     </row>
     <row r="34" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7824,15 +7812,15 @@
       <c r="BB34" s="61"/>
       <c r="BC34" s="61"/>
       <c r="BD34" s="61"/>
-      <c r="BE34" s="154"/>
-      <c r="BF34" s="154"/>
-      <c r="BG34" s="154"/>
-      <c r="BH34" s="154"/>
-      <c r="BI34" s="154"/>
-      <c r="BJ34" s="154"/>
-      <c r="BK34" s="154"/>
-      <c r="BL34" s="154"/>
-      <c r="BM34" s="155"/>
+      <c r="BE34" s="193"/>
+      <c r="BF34" s="193"/>
+      <c r="BG34" s="193"/>
+      <c r="BH34" s="193"/>
+      <c r="BI34" s="193"/>
+      <c r="BJ34" s="193"/>
+      <c r="BK34" s="193"/>
+      <c r="BL34" s="193"/>
+      <c r="BM34" s="194"/>
       <c r="BN34" s="66"/>
     </row>
     <row r="35" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7892,15 +7880,15 @@
       <c r="BB35" s="61"/>
       <c r="BC35" s="61"/>
       <c r="BD35" s="61"/>
-      <c r="BE35" s="154"/>
-      <c r="BF35" s="154"/>
-      <c r="BG35" s="154"/>
-      <c r="BH35" s="154"/>
-      <c r="BI35" s="154"/>
-      <c r="BJ35" s="154"/>
-      <c r="BK35" s="154"/>
-      <c r="BL35" s="154"/>
-      <c r="BM35" s="155"/>
+      <c r="BE35" s="193"/>
+      <c r="BF35" s="193"/>
+      <c r="BG35" s="193"/>
+      <c r="BH35" s="193"/>
+      <c r="BI35" s="193"/>
+      <c r="BJ35" s="193"/>
+      <c r="BK35" s="193"/>
+      <c r="BL35" s="193"/>
+      <c r="BM35" s="194"/>
       <c r="BN35" s="66"/>
     </row>
     <row r="36" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -7960,15 +7948,15 @@
       <c r="BB36" s="61"/>
       <c r="BC36" s="61"/>
       <c r="BD36" s="61"/>
-      <c r="BE36" s="154"/>
-      <c r="BF36" s="154"/>
-      <c r="BG36" s="154"/>
-      <c r="BH36" s="154"/>
-      <c r="BI36" s="154"/>
-      <c r="BJ36" s="154"/>
-      <c r="BK36" s="154"/>
-      <c r="BL36" s="154"/>
-      <c r="BM36" s="155"/>
+      <c r="BE36" s="193"/>
+      <c r="BF36" s="193"/>
+      <c r="BG36" s="193"/>
+      <c r="BH36" s="193"/>
+      <c r="BI36" s="193"/>
+      <c r="BJ36" s="193"/>
+      <c r="BK36" s="193"/>
+      <c r="BL36" s="193"/>
+      <c r="BM36" s="194"/>
       <c r="BN36" s="66"/>
     </row>
     <row r="37" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8028,15 +8016,15 @@
       <c r="BB37" s="61"/>
       <c r="BC37" s="61"/>
       <c r="BD37" s="61"/>
-      <c r="BE37" s="154"/>
-      <c r="BF37" s="154"/>
-      <c r="BG37" s="154"/>
-      <c r="BH37" s="154"/>
-      <c r="BI37" s="154"/>
-      <c r="BJ37" s="154"/>
-      <c r="BK37" s="154"/>
-      <c r="BL37" s="154"/>
-      <c r="BM37" s="155"/>
+      <c r="BE37" s="193"/>
+      <c r="BF37" s="193"/>
+      <c r="BG37" s="193"/>
+      <c r="BH37" s="193"/>
+      <c r="BI37" s="193"/>
+      <c r="BJ37" s="193"/>
+      <c r="BK37" s="193"/>
+      <c r="BL37" s="193"/>
+      <c r="BM37" s="194"/>
       <c r="BN37" s="66"/>
     </row>
     <row r="38" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8096,15 +8084,15 @@
       <c r="BB38" s="61"/>
       <c r="BC38" s="61"/>
       <c r="BD38" s="61"/>
-      <c r="BE38" s="154"/>
-      <c r="BF38" s="154"/>
-      <c r="BG38" s="154"/>
-      <c r="BH38" s="154"/>
-      <c r="BI38" s="154"/>
-      <c r="BJ38" s="154"/>
-      <c r="BK38" s="154"/>
-      <c r="BL38" s="154"/>
-      <c r="BM38" s="155"/>
+      <c r="BE38" s="193"/>
+      <c r="BF38" s="193"/>
+      <c r="BG38" s="193"/>
+      <c r="BH38" s="193"/>
+      <c r="BI38" s="193"/>
+      <c r="BJ38" s="193"/>
+      <c r="BK38" s="193"/>
+      <c r="BL38" s="193"/>
+      <c r="BM38" s="194"/>
       <c r="BN38" s="66"/>
     </row>
     <row r="39" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8164,15 +8152,15 @@
       <c r="BB39" s="61"/>
       <c r="BC39" s="61"/>
       <c r="BD39" s="61"/>
-      <c r="BE39" s="154"/>
-      <c r="BF39" s="154"/>
-      <c r="BG39" s="154"/>
-      <c r="BH39" s="154"/>
-      <c r="BI39" s="154"/>
-      <c r="BJ39" s="154"/>
-      <c r="BK39" s="154"/>
-      <c r="BL39" s="154"/>
-      <c r="BM39" s="155"/>
+      <c r="BE39" s="193"/>
+      <c r="BF39" s="193"/>
+      <c r="BG39" s="193"/>
+      <c r="BH39" s="193"/>
+      <c r="BI39" s="193"/>
+      <c r="BJ39" s="193"/>
+      <c r="BK39" s="193"/>
+      <c r="BL39" s="193"/>
+      <c r="BM39" s="194"/>
       <c r="BN39" s="66"/>
     </row>
     <row r="40" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8232,15 +8220,15 @@
       <c r="BB40" s="61"/>
       <c r="BC40" s="61"/>
       <c r="BD40" s="61"/>
-      <c r="BE40" s="154"/>
-      <c r="BF40" s="154"/>
-      <c r="BG40" s="154"/>
-      <c r="BH40" s="154"/>
-      <c r="BI40" s="154"/>
-      <c r="BJ40" s="154"/>
-      <c r="BK40" s="154"/>
-      <c r="BL40" s="154"/>
-      <c r="BM40" s="155"/>
+      <c r="BE40" s="193"/>
+      <c r="BF40" s="193"/>
+      <c r="BG40" s="193"/>
+      <c r="BH40" s="193"/>
+      <c r="BI40" s="193"/>
+      <c r="BJ40" s="193"/>
+      <c r="BK40" s="193"/>
+      <c r="BL40" s="193"/>
+      <c r="BM40" s="194"/>
       <c r="BN40" s="66"/>
     </row>
     <row r="41" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8300,15 +8288,15 @@
       <c r="BB41" s="61"/>
       <c r="BC41" s="61"/>
       <c r="BD41" s="61"/>
-      <c r="BE41" s="154"/>
-      <c r="BF41" s="154"/>
-      <c r="BG41" s="154"/>
-      <c r="BH41" s="154"/>
-      <c r="BI41" s="154"/>
-      <c r="BJ41" s="154"/>
-      <c r="BK41" s="154"/>
-      <c r="BL41" s="154"/>
-      <c r="BM41" s="155"/>
+      <c r="BE41" s="193"/>
+      <c r="BF41" s="193"/>
+      <c r="BG41" s="193"/>
+      <c r="BH41" s="193"/>
+      <c r="BI41" s="193"/>
+      <c r="BJ41" s="193"/>
+      <c r="BK41" s="193"/>
+      <c r="BL41" s="193"/>
+      <c r="BM41" s="194"/>
       <c r="BN41" s="66"/>
     </row>
     <row r="42" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8368,15 +8356,15 @@
       <c r="BB42" s="61"/>
       <c r="BC42" s="61"/>
       <c r="BD42" s="61"/>
-      <c r="BE42" s="154"/>
-      <c r="BF42" s="154"/>
-      <c r="BG42" s="154"/>
-      <c r="BH42" s="154"/>
-      <c r="BI42" s="154"/>
-      <c r="BJ42" s="154"/>
-      <c r="BK42" s="154"/>
-      <c r="BL42" s="154"/>
-      <c r="BM42" s="155"/>
+      <c r="BE42" s="193"/>
+      <c r="BF42" s="193"/>
+      <c r="BG42" s="193"/>
+      <c r="BH42" s="193"/>
+      <c r="BI42" s="193"/>
+      <c r="BJ42" s="193"/>
+      <c r="BK42" s="193"/>
+      <c r="BL42" s="193"/>
+      <c r="BM42" s="194"/>
       <c r="BN42" s="66"/>
     </row>
     <row r="43" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.45">
@@ -8436,15 +8424,15 @@
       <c r="BB43" s="80"/>
       <c r="BC43" s="80"/>
       <c r="BD43" s="80"/>
-      <c r="BE43" s="152"/>
-      <c r="BF43" s="152"/>
-      <c r="BG43" s="152"/>
-      <c r="BH43" s="152"/>
-      <c r="BI43" s="152"/>
-      <c r="BJ43" s="152"/>
-      <c r="BK43" s="152"/>
-      <c r="BL43" s="152"/>
-      <c r="BM43" s="153"/>
+      <c r="BE43" s="195"/>
+      <c r="BF43" s="195"/>
+      <c r="BG43" s="195"/>
+      <c r="BH43" s="195"/>
+      <c r="BI43" s="195"/>
+      <c r="BJ43" s="195"/>
+      <c r="BK43" s="195"/>
+      <c r="BL43" s="195"/>
+      <c r="BM43" s="196"/>
       <c r="BN43" s="81"/>
     </row>
     <row r="44" spans="1:66" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -8517,11 +8505,27 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="BE43:BM43"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
     <mergeCell ref="AW4:AY4"/>
     <mergeCell ref="AZ4:BE4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -8534,27 +8538,11 @@
     <mergeCell ref="AZ5:BE5"/>
     <mergeCell ref="BF5:BH5"/>
     <mergeCell ref="BI5:BN5"/>
-    <mergeCell ref="AW6:BM7"/>
-    <mergeCell ref="BE8:BM8"/>
-    <mergeCell ref="BE9:BM9"/>
-    <mergeCell ref="BE26:BM26"/>
-    <mergeCell ref="BE27:BM27"/>
-    <mergeCell ref="BE28:BM28"/>
-    <mergeCell ref="BE29:BM29"/>
-    <mergeCell ref="BE30:BM30"/>
-    <mergeCell ref="BE31:BM31"/>
-    <mergeCell ref="BE32:BM32"/>
-    <mergeCell ref="BE33:BM33"/>
-    <mergeCell ref="BE34:BM34"/>
-    <mergeCell ref="BE35:BM35"/>
-    <mergeCell ref="BE36:BM36"/>
-    <mergeCell ref="BE37:BM37"/>
-    <mergeCell ref="BE43:BM43"/>
-    <mergeCell ref="BE38:BM38"/>
-    <mergeCell ref="BE39:BM39"/>
-    <mergeCell ref="BE40:BM40"/>
-    <mergeCell ref="BE41:BM41"/>
-    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8773,34 +8761,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="228"/>
-      <c r="T1" s="228"/>
-      <c r="U1" s="228"/>
-      <c r="V1" s="228"/>
-      <c r="W1" s="228"/>
-      <c r="X1" s="228"/>
-      <c r="Y1" s="228"/>
-      <c r="Z1" s="228"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
       <c r="AQ1" s="25"/>
       <c r="AR1" s="25"/>
       <c r="AS1" s="25"/>
@@ -8827,166 +8815,166 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="232" t="s">
+      <c r="B2" s="206"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233"/>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
-      <c r="M2" s="233"/>
-      <c r="N2" s="234"/>
-      <c r="O2" s="235" t="s">
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="210"/>
+      <c r="O2" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="236"/>
-      <c r="Q2" s="236"/>
-      <c r="R2" s="236"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="237"/>
-      <c r="U2" s="238" t="s">
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="214" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="239"/>
-      <c r="AA2" s="239"/>
-      <c r="AB2" s="239"/>
-      <c r="AC2" s="239"/>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="239"/>
-      <c r="AG2" s="239"/>
-      <c r="AH2" s="239"/>
-      <c r="AI2" s="239"/>
-      <c r="AJ2" s="239"/>
-      <c r="AK2" s="239"/>
-      <c r="AL2" s="239"/>
-      <c r="AM2" s="239"/>
-      <c r="AN2" s="239"/>
-      <c r="AO2" s="239"/>
-      <c r="AP2" s="239"/>
-      <c r="AQ2" s="239"/>
-      <c r="AR2" s="239"/>
-      <c r="AS2" s="239"/>
-      <c r="AT2" s="239"/>
-      <c r="AU2" s="239"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="207" t="s">
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="215"/>
+      <c r="AS2" s="215"/>
+      <c r="AT2" s="215"/>
+      <c r="AU2" s="215"/>
+      <c r="AV2" s="216"/>
+      <c r="AW2" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" s="208"/>
-      <c r="AY2" s="209"/>
-      <c r="AZ2" s="241">
+      <c r="AX2" s="218"/>
+      <c r="AY2" s="219"/>
+      <c r="AZ2" s="220">
         <v>45425</v>
       </c>
-      <c r="BA2" s="211"/>
-      <c r="BB2" s="211"/>
-      <c r="BC2" s="211"/>
-      <c r="BD2" s="211"/>
-      <c r="BE2" s="211"/>
-      <c r="BF2" s="207" t="s">
+      <c r="BA2" s="221"/>
+      <c r="BB2" s="221"/>
+      <c r="BC2" s="221"/>
+      <c r="BD2" s="221"/>
+      <c r="BE2" s="221"/>
+      <c r="BF2" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="BG2" s="208"/>
-      <c r="BH2" s="209"/>
-      <c r="BI2" s="210" t="s">
+      <c r="BG2" s="218"/>
+      <c r="BH2" s="219"/>
+      <c r="BI2" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="BJ2" s="211"/>
-      <c r="BK2" s="211"/>
-      <c r="BL2" s="211"/>
-      <c r="BM2" s="211"/>
-      <c r="BN2" s="212"/>
+      <c r="BJ2" s="221"/>
+      <c r="BK2" s="221"/>
+      <c r="BL2" s="221"/>
+      <c r="BM2" s="221"/>
+      <c r="BN2" s="231"/>
     </row>
     <row r="3" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="213" t="s">
+      <c r="A3" s="232" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="214"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="216" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="233"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="216"/>
-      <c r="M3" s="216"/>
-      <c r="N3" s="217"/>
-      <c r="O3" s="213" t="s">
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="232" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="214"/>
-      <c r="Q3" s="214"/>
-      <c r="R3" s="214"/>
-      <c r="S3" s="214"/>
-      <c r="T3" s="215"/>
-      <c r="U3" s="218"/>
-      <c r="V3" s="219"/>
-      <c r="W3" s="219"/>
-      <c r="X3" s="219"/>
-      <c r="Y3" s="219"/>
-      <c r="Z3" s="219"/>
-      <c r="AA3" s="219"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="219"/>
-      <c r="AE3" s="219"/>
-      <c r="AF3" s="219"/>
-      <c r="AG3" s="219"/>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="219"/>
-      <c r="AJ3" s="219"/>
-      <c r="AK3" s="219"/>
-      <c r="AL3" s="219"/>
-      <c r="AM3" s="219"/>
-      <c r="AN3" s="219"/>
-      <c r="AO3" s="219"/>
-      <c r="AP3" s="219"/>
-      <c r="AQ3" s="219"/>
-      <c r="AR3" s="219"/>
-      <c r="AS3" s="219"/>
-      <c r="AT3" s="219"/>
-      <c r="AU3" s="219"/>
-      <c r="AV3" s="220"/>
-      <c r="AW3" s="221" t="s">
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="233"/>
+      <c r="S3" s="233"/>
+      <c r="T3" s="234"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="238"/>
+      <c r="AA3" s="238"/>
+      <c r="AB3" s="238"/>
+      <c r="AC3" s="238"/>
+      <c r="AD3" s="238"/>
+      <c r="AE3" s="238"/>
+      <c r="AF3" s="238"/>
+      <c r="AG3" s="238"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="238"/>
+      <c r="AJ3" s="238"/>
+      <c r="AK3" s="238"/>
+      <c r="AL3" s="238"/>
+      <c r="AM3" s="238"/>
+      <c r="AN3" s="238"/>
+      <c r="AO3" s="238"/>
+      <c r="AP3" s="238"/>
+      <c r="AQ3" s="238"/>
+      <c r="AR3" s="238"/>
+      <c r="AS3" s="238"/>
+      <c r="AT3" s="238"/>
+      <c r="AU3" s="238"/>
+      <c r="AV3" s="239"/>
+      <c r="AW3" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="AX3" s="222"/>
-      <c r="AY3" s="223"/>
-      <c r="AZ3" s="222"/>
-      <c r="BA3" s="222"/>
-      <c r="BB3" s="222"/>
-      <c r="BC3" s="222"/>
-      <c r="BD3" s="222"/>
-      <c r="BE3" s="222"/>
-      <c r="BF3" s="221" t="s">
+      <c r="AX3" s="241"/>
+      <c r="AY3" s="242"/>
+      <c r="AZ3" s="241"/>
+      <c r="BA3" s="241"/>
+      <c r="BB3" s="241"/>
+      <c r="BC3" s="241"/>
+      <c r="BD3" s="241"/>
+      <c r="BE3" s="241"/>
+      <c r="BF3" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="BG3" s="222"/>
-      <c r="BH3" s="223"/>
-      <c r="BI3" s="222"/>
-      <c r="BJ3" s="219"/>
-      <c r="BK3" s="219"/>
-      <c r="BL3" s="219"/>
-      <c r="BM3" s="219"/>
-      <c r="BN3" s="220"/>
+      <c r="BG3" s="241"/>
+      <c r="BH3" s="242"/>
+      <c r="BI3" s="241"/>
+      <c r="BJ3" s="238"/>
+      <c r="BK3" s="238"/>
+      <c r="BL3" s="238"/>
+      <c r="BM3" s="238"/>
+      <c r="BN3" s="239"/>
     </row>
     <row r="4" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
@@ -9030,36 +9018,36 @@
       <c r="AM4" s="29"/>
       <c r="AN4" s="29"/>
       <c r="AO4" s="29"/>
-      <c r="AP4" s="246" t="s">
+      <c r="AP4" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="AQ4" s="247"/>
-      <c r="AR4" s="247"/>
-      <c r="AS4" s="248" t="s">
+      <c r="AQ4" s="228"/>
+      <c r="AR4" s="228"/>
+      <c r="AS4" s="229" t="s">
         <v>19</v>
       </c>
-      <c r="AT4" s="248"/>
-      <c r="AU4" s="248"/>
-      <c r="AV4" s="248"/>
-      <c r="AW4" s="248"/>
-      <c r="AX4" s="248"/>
-      <c r="AY4" s="248"/>
-      <c r="AZ4" s="248"/>
-      <c r="BA4" s="248"/>
-      <c r="BB4" s="248"/>
-      <c r="BC4" s="248"/>
-      <c r="BD4" s="248"/>
-      <c r="BE4" s="248" t="s">
+      <c r="AT4" s="229"/>
+      <c r="AU4" s="229"/>
+      <c r="AV4" s="229"/>
+      <c r="AW4" s="229"/>
+      <c r="AX4" s="229"/>
+      <c r="AY4" s="229"/>
+      <c r="AZ4" s="229"/>
+      <c r="BA4" s="229"/>
+      <c r="BB4" s="229"/>
+      <c r="BC4" s="229"/>
+      <c r="BD4" s="229"/>
+      <c r="BE4" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="BF4" s="247"/>
-      <c r="BG4" s="247"/>
-      <c r="BH4" s="247"/>
-      <c r="BI4" s="247"/>
-      <c r="BJ4" s="247"/>
-      <c r="BK4" s="247"/>
-      <c r="BL4" s="247"/>
-      <c r="BM4" s="247"/>
+      <c r="BF4" s="228"/>
+      <c r="BG4" s="228"/>
+      <c r="BH4" s="228"/>
+      <c r="BI4" s="228"/>
+      <c r="BJ4" s="228"/>
+      <c r="BK4" s="228"/>
+      <c r="BL4" s="228"/>
+      <c r="BM4" s="228"/>
       <c r="BN4" s="94"/>
       <c r="BO4" s="128"/>
       <c r="BP4" s="94"/>
@@ -9112,31 +9100,31 @@
         <v>1</v>
       </c>
       <c r="AR5" s="98"/>
-      <c r="AS5" s="204" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT5" s="205"/>
-      <c r="AU5" s="205"/>
-      <c r="AV5" s="205"/>
-      <c r="AW5" s="205"/>
-      <c r="AX5" s="205"/>
-      <c r="AY5" s="205"/>
-      <c r="AZ5" s="205"/>
-      <c r="BA5" s="205"/>
-      <c r="BB5" s="205"/>
-      <c r="BC5" s="205"/>
+      <c r="AS5" s="247" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT5" s="248"/>
+      <c r="AU5" s="248"/>
+      <c r="AV5" s="248"/>
+      <c r="AW5" s="248"/>
+      <c r="AX5" s="248"/>
+      <c r="AY5" s="248"/>
+      <c r="AZ5" s="248"/>
+      <c r="BA5" s="248"/>
+      <c r="BB5" s="248"/>
+      <c r="BC5" s="248"/>
       <c r="BD5" s="85"/>
-      <c r="BE5" s="204" t="s">
+      <c r="BE5" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="BF5" s="205"/>
-      <c r="BG5" s="205"/>
-      <c r="BH5" s="205"/>
-      <c r="BI5" s="205"/>
-      <c r="BJ5" s="205"/>
-      <c r="BK5" s="205"/>
-      <c r="BL5" s="205"/>
-      <c r="BM5" s="206"/>
+      <c r="BF5" s="248"/>
+      <c r="BG5" s="248"/>
+      <c r="BH5" s="248"/>
+      <c r="BI5" s="248"/>
+      <c r="BJ5" s="248"/>
+      <c r="BK5" s="248"/>
+      <c r="BL5" s="248"/>
+      <c r="BM5" s="249"/>
       <c r="BN5" s="94"/>
       <c r="BO5" s="128"/>
       <c r="BP5" s="94"/>
@@ -9184,36 +9172,36 @@
       <c r="AM6" s="29"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="29"/>
-      <c r="AP6" s="242" t="s">
+      <c r="AP6" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="AQ6" s="243"/>
-      <c r="AR6" s="244"/>
-      <c r="AS6" s="199" t="s">
+      <c r="AQ6" s="223"/>
+      <c r="AR6" s="224"/>
+      <c r="AS6" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="AT6" s="200"/>
-      <c r="AU6" s="200"/>
-      <c r="AV6" s="200"/>
-      <c r="AW6" s="200"/>
-      <c r="AX6" s="200"/>
-      <c r="AY6" s="200"/>
-      <c r="AZ6" s="200"/>
-      <c r="BA6" s="200"/>
-      <c r="BB6" s="200"/>
-      <c r="BC6" s="201"/>
+      <c r="AT6" s="245"/>
+      <c r="AU6" s="245"/>
+      <c r="AV6" s="245"/>
+      <c r="AW6" s="245"/>
+      <c r="AX6" s="245"/>
+      <c r="AY6" s="245"/>
+      <c r="AZ6" s="245"/>
+      <c r="BA6" s="245"/>
+      <c r="BB6" s="245"/>
+      <c r="BC6" s="246"/>
       <c r="BD6" s="51"/>
-      <c r="BE6" s="196" t="s">
+      <c r="BE6" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="BF6" s="197"/>
-      <c r="BG6" s="197"/>
-      <c r="BH6" s="197"/>
-      <c r="BI6" s="197"/>
-      <c r="BJ6" s="197"/>
-      <c r="BK6" s="197"/>
-      <c r="BL6" s="197"/>
-      <c r="BM6" s="198"/>
+      <c r="BF6" s="243"/>
+      <c r="BG6" s="243"/>
+      <c r="BH6" s="243"/>
+      <c r="BI6" s="243"/>
+      <c r="BJ6" s="243"/>
+      <c r="BK6" s="243"/>
+      <c r="BL6" s="243"/>
+      <c r="BM6" s="226"/>
       <c r="BN6" s="94"/>
       <c r="BO6" s="128"/>
       <c r="BP6" s="94"/>
@@ -9261,36 +9249,36 @@
       <c r="AM7" s="29"/>
       <c r="AN7" s="29"/>
       <c r="AO7" s="29"/>
-      <c r="AP7" s="242" t="s">
+      <c r="AP7" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="AQ7" s="243"/>
-      <c r="AR7" s="244"/>
-      <c r="AS7" s="196" t="s">
+      <c r="AQ7" s="223"/>
+      <c r="AR7" s="224"/>
+      <c r="AS7" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="AT7" s="202"/>
-      <c r="AU7" s="202"/>
-      <c r="AV7" s="202"/>
-      <c r="AW7" s="202"/>
-      <c r="AX7" s="202"/>
-      <c r="AY7" s="202"/>
-      <c r="AZ7" s="202"/>
-      <c r="BA7" s="202"/>
-      <c r="BB7" s="202"/>
-      <c r="BC7" s="203"/>
+      <c r="AT7" s="201"/>
+      <c r="AU7" s="201"/>
+      <c r="AV7" s="201"/>
+      <c r="AW7" s="201"/>
+      <c r="AX7" s="201"/>
+      <c r="AY7" s="201"/>
+      <c r="AZ7" s="201"/>
+      <c r="BA7" s="201"/>
+      <c r="BB7" s="201"/>
+      <c r="BC7" s="202"/>
       <c r="BD7" s="51"/>
-      <c r="BE7" s="196" t="s">
+      <c r="BE7" s="200" t="s">
         <v>68</v>
       </c>
-      <c r="BF7" s="245"/>
-      <c r="BG7" s="245"/>
-      <c r="BH7" s="245"/>
-      <c r="BI7" s="245"/>
-      <c r="BJ7" s="245"/>
-      <c r="BK7" s="245"/>
-      <c r="BL7" s="245"/>
-      <c r="BM7" s="198"/>
+      <c r="BF7" s="225"/>
+      <c r="BG7" s="225"/>
+      <c r="BH7" s="225"/>
+      <c r="BI7" s="225"/>
+      <c r="BJ7" s="225"/>
+      <c r="BK7" s="225"/>
+      <c r="BL7" s="225"/>
+      <c r="BM7" s="226"/>
       <c r="BN7" s="94"/>
       <c r="BO7" s="128"/>
       <c r="BP7" s="94"/>
@@ -9345,19 +9333,19 @@
         <v>4</v>
       </c>
       <c r="AR8" s="57"/>
-      <c r="AS8" s="196" t="s">
+      <c r="AS8" s="200" t="s">
         <v>47</v>
       </c>
-      <c r="AT8" s="202"/>
-      <c r="AU8" s="202"/>
-      <c r="AV8" s="202"/>
-      <c r="AW8" s="202"/>
-      <c r="AX8" s="202"/>
-      <c r="AY8" s="202"/>
-      <c r="AZ8" s="202"/>
-      <c r="BA8" s="202"/>
-      <c r="BB8" s="202"/>
-      <c r="BC8" s="203"/>
+      <c r="AT8" s="201"/>
+      <c r="AU8" s="201"/>
+      <c r="AV8" s="201"/>
+      <c r="AW8" s="201"/>
+      <c r="AX8" s="201"/>
+      <c r="AY8" s="201"/>
+      <c r="AZ8" s="201"/>
+      <c r="BA8" s="201"/>
+      <c r="BB8" s="201"/>
+      <c r="BC8" s="202"/>
       <c r="BD8" s="51"/>
       <c r="BE8" s="99" t="s">
         <v>68</v>
@@ -9422,19 +9410,19 @@
         <v>5</v>
       </c>
       <c r="AR9" s="57"/>
-      <c r="AS9" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT9" s="202"/>
-      <c r="AU9" s="202"/>
-      <c r="AV9" s="202"/>
-      <c r="AW9" s="202"/>
-      <c r="AX9" s="202"/>
-      <c r="AY9" s="202"/>
-      <c r="AZ9" s="202"/>
-      <c r="BA9" s="202"/>
-      <c r="BB9" s="202"/>
-      <c r="BC9" s="203"/>
+      <c r="AS9" s="200" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT9" s="201"/>
+      <c r="AU9" s="201"/>
+      <c r="AV9" s="201"/>
+      <c r="AW9" s="201"/>
+      <c r="AX9" s="201"/>
+      <c r="AY9" s="201"/>
+      <c r="AZ9" s="201"/>
+      <c r="BA9" s="201"/>
+      <c r="BB9" s="201"/>
+      <c r="BC9" s="202"/>
       <c r="BD9" s="51"/>
       <c r="BE9" s="99" t="s">
         <v>68</v>
@@ -9499,22 +9487,22 @@
         <v>6</v>
       </c>
       <c r="AR10" s="123"/>
-      <c r="AS10" s="224" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT10" s="225"/>
-      <c r="AU10" s="225"/>
-      <c r="AV10" s="225"/>
-      <c r="AW10" s="225"/>
-      <c r="AX10" s="225"/>
-      <c r="AY10" s="225"/>
-      <c r="AZ10" s="225"/>
-      <c r="BA10" s="225"/>
-      <c r="BB10" s="225"/>
-      <c r="BC10" s="226"/>
+      <c r="AS10" s="197" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT10" s="198"/>
+      <c r="AU10" s="198"/>
+      <c r="AV10" s="198"/>
+      <c r="AW10" s="198"/>
+      <c r="AX10" s="198"/>
+      <c r="AY10" s="198"/>
+      <c r="AZ10" s="198"/>
+      <c r="BA10" s="198"/>
+      <c r="BB10" s="198"/>
+      <c r="BC10" s="199"/>
       <c r="BD10" s="124"/>
       <c r="BE10" s="125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BF10" s="126"/>
       <c r="BG10" s="126"/>
@@ -10387,6 +10375,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="BE6:BM6"/>
+    <mergeCell ref="AS6:BC6"/>
+    <mergeCell ref="AS7:BC7"/>
+    <mergeCell ref="AS5:BC5"/>
+    <mergeCell ref="BE5:BM5"/>
+    <mergeCell ref="BF2:BH2"/>
+    <mergeCell ref="BI2:BN2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="U3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BE3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BN3"/>
     <mergeCell ref="AS10:BC10"/>
     <mergeCell ref="AS8:BC8"/>
     <mergeCell ref="AS9:BC9"/>
@@ -10403,21 +10406,6 @@
     <mergeCell ref="AS4:BD4"/>
     <mergeCell ref="BE4:BM4"/>
     <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="BF2:BH2"/>
-    <mergeCell ref="BI2:BN2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="U3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BE3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BN3"/>
-    <mergeCell ref="BE6:BM6"/>
-    <mergeCell ref="AS6:BC6"/>
-    <mergeCell ref="AS7:BC7"/>
-    <mergeCell ref="AS5:BC5"/>
-    <mergeCell ref="BE5:BM5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10761,34 +10749,34 @@
       <c r="BK1" s="21"/>
     </row>
     <row r="2" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="228"/>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="204"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -10813,32 +10801,32 @@
       <c r="BK2" s="26"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="227"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="228"/>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="228"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="228"/>
-      <c r="U3" s="228"/>
-      <c r="V3" s="228"/>
-      <c r="W3" s="228"/>
-      <c r="X3" s="228"/>
-      <c r="Y3" s="228"/>
-      <c r="Z3" s="228"/>
+      <c r="A3" s="203"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
+      <c r="M3" s="204"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="204"/>
+      <c r="S3" s="204"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="204"/>
+      <c r="V3" s="204"/>
+      <c r="W3" s="204"/>
+      <c r="X3" s="204"/>
+      <c r="Y3" s="204"/>
+      <c r="Z3" s="204"/>
       <c r="AP3" s="25"/>
       <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
@@ -10863,160 +10851,160 @@
       <c r="BK3" s="25"/>
     </row>
     <row r="4" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="281" t="s">
+      <c r="A4" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="284" t="s">
+      <c r="B4" s="251"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="252"/>
+      <c r="G4" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
-      <c r="M4" s="285"/>
-      <c r="N4" s="286"/>
-      <c r="O4" s="287" t="s">
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="256" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="288"/>
-      <c r="Q4" s="288"/>
-      <c r="R4" s="288"/>
-      <c r="S4" s="288"/>
-      <c r="T4" s="289"/>
-      <c r="U4" s="290" t="s">
+      <c r="P4" s="257"/>
+      <c r="Q4" s="257"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="257"/>
+      <c r="T4" s="258"/>
+      <c r="U4" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="V4" s="291"/>
-      <c r="W4" s="291"/>
-      <c r="X4" s="291"/>
-      <c r="Y4" s="291"/>
-      <c r="Z4" s="291"/>
-      <c r="AA4" s="291"/>
-      <c r="AB4" s="291"/>
-      <c r="AC4" s="291"/>
-      <c r="AD4" s="291"/>
-      <c r="AE4" s="291"/>
-      <c r="AF4" s="291"/>
-      <c r="AG4" s="291"/>
-      <c r="AH4" s="291"/>
-      <c r="AI4" s="291"/>
-      <c r="AJ4" s="291"/>
-      <c r="AK4" s="291"/>
-      <c r="AL4" s="291"/>
-      <c r="AM4" s="291"/>
-      <c r="AN4" s="291"/>
-      <c r="AO4" s="291"/>
-      <c r="AP4" s="291"/>
-      <c r="AQ4" s="291"/>
-      <c r="AR4" s="291"/>
-      <c r="AS4" s="291"/>
-      <c r="AT4" s="291"/>
-      <c r="AU4" s="292"/>
-      <c r="AV4" s="256" t="s">
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
+      <c r="X4" s="260"/>
+      <c r="Y4" s="260"/>
+      <c r="Z4" s="260"/>
+      <c r="AA4" s="260"/>
+      <c r="AB4" s="260"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
+      <c r="AE4" s="260"/>
+      <c r="AF4" s="260"/>
+      <c r="AG4" s="260"/>
+      <c r="AH4" s="260"/>
+      <c r="AI4" s="260"/>
+      <c r="AJ4" s="260"/>
+      <c r="AK4" s="260"/>
+      <c r="AL4" s="260"/>
+      <c r="AM4" s="260"/>
+      <c r="AN4" s="260"/>
+      <c r="AO4" s="260"/>
+      <c r="AP4" s="260"/>
+      <c r="AQ4" s="260"/>
+      <c r="AR4" s="260"/>
+      <c r="AS4" s="260"/>
+      <c r="AT4" s="260"/>
+      <c r="AU4" s="261"/>
+      <c r="AV4" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="257"/>
-      <c r="AX4" s="258"/>
-      <c r="AY4" s="259">
+      <c r="AW4" s="263"/>
+      <c r="AX4" s="264"/>
+      <c r="AY4" s="265">
         <v>45425</v>
       </c>
-      <c r="AZ4" s="260"/>
-      <c r="BA4" s="260"/>
-      <c r="BB4" s="260"/>
-      <c r="BC4" s="260"/>
-      <c r="BD4" s="260"/>
-      <c r="BE4" s="261" t="s">
+      <c r="AZ4" s="266"/>
+      <c r="BA4" s="266"/>
+      <c r="BB4" s="266"/>
+      <c r="BC4" s="266"/>
+      <c r="BD4" s="266"/>
+      <c r="BE4" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="BF4" s="262"/>
-      <c r="BG4" s="263"/>
-      <c r="BH4" s="264" t="s">
+      <c r="BF4" s="268"/>
+      <c r="BG4" s="269"/>
+      <c r="BH4" s="270" t="s">
         <v>43</v>
       </c>
-      <c r="BI4" s="265"/>
-      <c r="BJ4" s="265"/>
-      <c r="BK4" s="266"/>
+      <c r="BI4" s="271"/>
+      <c r="BJ4" s="271"/>
+      <c r="BK4" s="272"/>
     </row>
     <row r="5" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="267" t="s">
+      <c r="A5" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="270" t="s">
+      <c r="B5" s="274"/>
+      <c r="C5" s="274"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="274"/>
+      <c r="F5" s="275"/>
+      <c r="G5" s="276" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="270"/>
-      <c r="I5" s="270"/>
-      <c r="J5" s="270"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="270"/>
-      <c r="M5" s="270"/>
-      <c r="N5" s="271"/>
-      <c r="O5" s="267" t="s">
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="276"/>
+      <c r="K5" s="276"/>
+      <c r="L5" s="276"/>
+      <c r="M5" s="276"/>
+      <c r="N5" s="277"/>
+      <c r="O5" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="268"/>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="269"/>
-      <c r="U5" s="272"/>
-      <c r="V5" s="273"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="273"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="273"/>
-      <c r="AL5" s="273"/>
-      <c r="AM5" s="273"/>
-      <c r="AN5" s="273"/>
-      <c r="AO5" s="273"/>
-      <c r="AP5" s="273"/>
-      <c r="AQ5" s="273"/>
-      <c r="AR5" s="273"/>
-      <c r="AS5" s="273"/>
-      <c r="AT5" s="273"/>
-      <c r="AU5" s="274"/>
-      <c r="AV5" s="275" t="s">
+      <c r="P5" s="274"/>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="275"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="279"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="279"/>
+      <c r="AE5" s="279"/>
+      <c r="AF5" s="279"/>
+      <c r="AG5" s="279"/>
+      <c r="AH5" s="279"/>
+      <c r="AI5" s="279"/>
+      <c r="AJ5" s="279"/>
+      <c r="AK5" s="279"/>
+      <c r="AL5" s="279"/>
+      <c r="AM5" s="279"/>
+      <c r="AN5" s="279"/>
+      <c r="AO5" s="279"/>
+      <c r="AP5" s="279"/>
+      <c r="AQ5" s="279"/>
+      <c r="AR5" s="279"/>
+      <c r="AS5" s="279"/>
+      <c r="AT5" s="279"/>
+      <c r="AU5" s="280"/>
+      <c r="AV5" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="AW5" s="276"/>
-      <c r="AX5" s="277"/>
-      <c r="AY5" s="276"/>
-      <c r="AZ5" s="276"/>
-      <c r="BA5" s="276"/>
-      <c r="BB5" s="276"/>
-      <c r="BC5" s="276"/>
-      <c r="BD5" s="276"/>
-      <c r="BE5" s="278" t="s">
+      <c r="AW5" s="282"/>
+      <c r="AX5" s="283"/>
+      <c r="AY5" s="282"/>
+      <c r="AZ5" s="282"/>
+      <c r="BA5" s="282"/>
+      <c r="BB5" s="282"/>
+      <c r="BC5" s="282"/>
+      <c r="BD5" s="282"/>
+      <c r="BE5" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="BF5" s="279"/>
-      <c r="BG5" s="280"/>
-      <c r="BH5" s="279"/>
-      <c r="BI5" s="265"/>
-      <c r="BJ5" s="265"/>
-      <c r="BK5" s="266"/>
+      <c r="BF5" s="285"/>
+      <c r="BG5" s="286"/>
+      <c r="BH5" s="285"/>
+      <c r="BI5" s="271"/>
+      <c r="BJ5" s="271"/>
+      <c r="BK5" s="272"/>
     </row>
     <row r="6" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32"/>
@@ -11058,102 +11046,102 @@
       <c r="AK6" s="33"/>
       <c r="AL6" s="33"/>
       <c r="AM6" s="33"/>
-      <c r="AN6" s="249"/>
-      <c r="AO6" s="250"/>
-      <c r="AP6" s="250"/>
-      <c r="AQ6" s="249"/>
-      <c r="AR6" s="249"/>
-      <c r="AS6" s="249"/>
-      <c r="AT6" s="249"/>
-      <c r="AU6" s="249"/>
-      <c r="AV6" s="249"/>
-      <c r="AW6" s="249"/>
-      <c r="AX6" s="249"/>
-      <c r="AY6" s="249"/>
-      <c r="AZ6" s="249"/>
-      <c r="BA6" s="249"/>
-      <c r="BB6" s="249"/>
-      <c r="BC6" s="249"/>
-      <c r="BD6" s="250"/>
-      <c r="BE6" s="250"/>
-      <c r="BF6" s="250"/>
-      <c r="BG6" s="250"/>
-      <c r="BH6" s="250"/>
-      <c r="BI6" s="250"/>
-      <c r="BJ6" s="250"/>
-      <c r="BK6" s="250"/>
+      <c r="AN6" s="287"/>
+      <c r="AO6" s="288"/>
+      <c r="AP6" s="288"/>
+      <c r="AQ6" s="287"/>
+      <c r="AR6" s="287"/>
+      <c r="AS6" s="287"/>
+      <c r="AT6" s="287"/>
+      <c r="AU6" s="287"/>
+      <c r="AV6" s="287"/>
+      <c r="AW6" s="287"/>
+      <c r="AX6" s="287"/>
+      <c r="AY6" s="287"/>
+      <c r="AZ6" s="287"/>
+      <c r="BA6" s="287"/>
+      <c r="BB6" s="287"/>
+      <c r="BC6" s="287"/>
+      <c r="BD6" s="288"/>
+      <c r="BE6" s="288"/>
+      <c r="BF6" s="288"/>
+      <c r="BG6" s="288"/>
+      <c r="BH6" s="288"/>
+      <c r="BI6" s="288"/>
+      <c r="BJ6" s="288"/>
+      <c r="BK6" s="288"/>
     </row>
     <row r="7" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="289" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="252"/>
-      <c r="E7" s="252"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="252"/>
-      <c r="H7" s="252"/>
-      <c r="I7" s="252"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="252"/>
-      <c r="L7" s="252"/>
-      <c r="M7" s="252"/>
-      <c r="N7" s="252"/>
-      <c r="O7" s="252"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="252"/>
-      <c r="R7" s="252"/>
-      <c r="S7" s="252"/>
-      <c r="T7" s="252"/>
-      <c r="U7" s="252"/>
-      <c r="V7" s="252"/>
-      <c r="W7" s="252"/>
-      <c r="X7" s="252"/>
-      <c r="Y7" s="252"/>
-      <c r="Z7" s="252"/>
-      <c r="AA7" s="252"/>
-      <c r="AB7" s="252"/>
-      <c r="AC7" s="252"/>
-      <c r="AD7" s="252"/>
-      <c r="AE7" s="252"/>
-      <c r="AF7" s="252"/>
-      <c r="AG7" s="252"/>
-      <c r="AH7" s="252"/>
-      <c r="AI7" s="252"/>
-      <c r="AJ7" s="252"/>
-      <c r="AK7" s="252"/>
-      <c r="AL7" s="252"/>
-      <c r="AM7" s="252"/>
-      <c r="AN7" s="252"/>
-      <c r="AO7" s="252"/>
-      <c r="AP7" s="252"/>
-      <c r="AQ7" s="252"/>
-      <c r="AR7" s="252"/>
-      <c r="AS7" s="252"/>
-      <c r="AT7" s="252"/>
-      <c r="AU7" s="252"/>
-      <c r="AV7" s="252"/>
-      <c r="AW7" s="252"/>
-      <c r="AX7" s="252"/>
-      <c r="AY7" s="252"/>
-      <c r="AZ7" s="252"/>
-      <c r="BA7" s="252"/>
-      <c r="BB7" s="252"/>
-      <c r="BC7" s="252"/>
-      <c r="BD7" s="252"/>
-      <c r="BE7" s="252"/>
-      <c r="BF7" s="252"/>
-      <c r="BG7" s="252"/>
-      <c r="BH7" s="252"/>
-      <c r="BI7" s="252"/>
-      <c r="BJ7" s="252"/>
-      <c r="BK7" s="253"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+      <c r="M7" s="290"/>
+      <c r="N7" s="290"/>
+      <c r="O7" s="290"/>
+      <c r="P7" s="290"/>
+      <c r="Q7" s="290"/>
+      <c r="R7" s="290"/>
+      <c r="S7" s="290"/>
+      <c r="T7" s="290"/>
+      <c r="U7" s="290"/>
+      <c r="V7" s="290"/>
+      <c r="W7" s="290"/>
+      <c r="X7" s="290"/>
+      <c r="Y7" s="290"/>
+      <c r="Z7" s="290"/>
+      <c r="AA7" s="290"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="290"/>
+      <c r="AD7" s="290"/>
+      <c r="AE7" s="290"/>
+      <c r="AF7" s="290"/>
+      <c r="AG7" s="290"/>
+      <c r="AH7" s="290"/>
+      <c r="AI7" s="290"/>
+      <c r="AJ7" s="290"/>
+      <c r="AK7" s="290"/>
+      <c r="AL7" s="290"/>
+      <c r="AM7" s="290"/>
+      <c r="AN7" s="290"/>
+      <c r="AO7" s="290"/>
+      <c r="AP7" s="290"/>
+      <c r="AQ7" s="290"/>
+      <c r="AR7" s="290"/>
+      <c r="AS7" s="290"/>
+      <c r="AT7" s="290"/>
+      <c r="AU7" s="290"/>
+      <c r="AV7" s="290"/>
+      <c r="AW7" s="290"/>
+      <c r="AX7" s="290"/>
+      <c r="AY7" s="290"/>
+      <c r="AZ7" s="290"/>
+      <c r="BA7" s="290"/>
+      <c r="BB7" s="290"/>
+      <c r="BC7" s="290"/>
+      <c r="BD7" s="290"/>
+      <c r="BE7" s="290"/>
+      <c r="BF7" s="290"/>
+      <c r="BG7" s="290"/>
+      <c r="BH7" s="290"/>
+      <c r="BI7" s="290"/>
+      <c r="BJ7" s="290"/>
+      <c r="BK7" s="291"/>
     </row>
     <row r="8" spans="1:63" s="61" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="62"/>
       <c r="C8" s="63"/>
       <c r="D8" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -11220,7 +11208,7 @@
       <c r="C9" s="100"/>
       <c r="D9" s="101"/>
       <c r="E9" s="101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="101"/>
       <c r="G9" s="101"/>
@@ -11413,43 +11401,43 @@
     <row r="12" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="254" t="s">
+      <c r="C12" s="292" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="255"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="255"/>
-      <c r="N12" s="255"/>
-      <c r="O12" s="255"/>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="255"/>
-      <c r="R12" s="255"/>
-      <c r="S12" s="255"/>
-      <c r="T12" s="255"/>
-      <c r="U12" s="255"/>
-      <c r="V12" s="255"/>
-      <c r="W12" s="255"/>
-      <c r="X12" s="255"/>
-      <c r="Y12" s="255"/>
-      <c r="Z12" s="255"/>
-      <c r="AA12" s="255"/>
-      <c r="AB12" s="255"/>
-      <c r="AC12" s="255"/>
-      <c r="AD12" s="255"/>
-      <c r="AE12" s="255"/>
-      <c r="AF12" s="255"/>
-      <c r="AG12" s="255"/>
-      <c r="AH12" s="255"/>
-      <c r="AI12" s="255"/>
-      <c r="AJ12" s="255"/>
-      <c r="AK12" s="255"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="293"/>
+      <c r="H12" s="293"/>
+      <c r="I12" s="293"/>
+      <c r="J12" s="293"/>
+      <c r="K12" s="293"/>
+      <c r="L12" s="293"/>
+      <c r="M12" s="293"/>
+      <c r="N12" s="293"/>
+      <c r="O12" s="293"/>
+      <c r="P12" s="293"/>
+      <c r="Q12" s="293"/>
+      <c r="R12" s="293"/>
+      <c r="S12" s="293"/>
+      <c r="T12" s="293"/>
+      <c r="U12" s="293"/>
+      <c r="V12" s="293"/>
+      <c r="W12" s="293"/>
+      <c r="X12" s="293"/>
+      <c r="Y12" s="293"/>
+      <c r="Z12" s="293"/>
+      <c r="AA12" s="293"/>
+      <c r="AB12" s="293"/>
+      <c r="AC12" s="293"/>
+      <c r="AD12" s="293"/>
+      <c r="AE12" s="293"/>
+      <c r="AF12" s="293"/>
+      <c r="AG12" s="293"/>
+      <c r="AH12" s="293"/>
+      <c r="AI12" s="293"/>
+      <c r="AJ12" s="293"/>
+      <c r="AK12" s="293"/>
       <c r="AL12" s="108"/>
       <c r="AM12" s="108"/>
       <c r="AN12" s="108"/>
@@ -11483,7 +11471,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="37"/>
       <c r="E13" s="103"/>
-      <c r="F13" s="133"/>
+      <c r="F13" s="130"/>
       <c r="G13" s="103"/>
       <c r="H13" s="103"/>
       <c r="I13" s="103"/>
@@ -11546,11 +11534,11 @@
       <c r="A14" s="34"/>
       <c r="B14" s="36"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="402" t="s">
-        <v>99</v>
+      <c r="D14" s="132" t="s">
+        <v>98</v>
       </c>
       <c r="E14" s="103"/>
-      <c r="F14" s="133"/>
+      <c r="F14" s="130"/>
       <c r="G14" s="103"/>
       <c r="H14" s="103"/>
       <c r="I14" s="103"/>
@@ -11811,7 +11799,7 @@
       <c r="BK17" s="104"/>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A18" s="134"/>
+      <c r="A18" s="131"/>
       <c r="C18" s="38"/>
       <c r="D18" s="103"/>
       <c r="E18" s="103"/>
@@ -11875,33 +11863,33 @@
       <c r="BK18" s="104"/>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A19" s="134"/>
+      <c r="A19" s="131"/>
       <c r="C19" s="38"/>
       <c r="D19" s="103"/>
-      <c r="E19" s="402"/>
-      <c r="F19" s="402" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="402"/>
-      <c r="H19" s="402"/>
-      <c r="I19" s="402"/>
-      <c r="J19" s="402"/>
-      <c r="K19" s="402"/>
-      <c r="L19" s="402"/>
-      <c r="M19" s="402"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="402"/>
-      <c r="P19" s="402"/>
-      <c r="Q19" s="402"/>
-      <c r="R19" s="402"/>
-      <c r="S19" s="402"/>
-      <c r="T19" s="402"/>
-      <c r="U19" s="402"/>
-      <c r="V19" s="402"/>
-      <c r="W19" s="402"/>
-      <c r="X19" s="402"/>
-      <c r="Y19" s="402"/>
-      <c r="Z19" s="402"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
       <c r="AC19" s="37"/>
@@ -11941,33 +11929,33 @@
       <c r="BK19" s="104"/>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A20" s="134"/>
+      <c r="A20" s="131"/>
       <c r="C20" s="38"/>
       <c r="D20" s="103"/>
-      <c r="E20" s="402"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="402" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="402"/>
-      <c r="I20" s="402"/>
-      <c r="J20" s="402"/>
-      <c r="K20" s="402"/>
-      <c r="L20" s="402"/>
-      <c r="M20" s="402"/>
-      <c r="N20" s="402"/>
-      <c r="O20" s="402"/>
-      <c r="P20" s="402"/>
-      <c r="Q20" s="402"/>
-      <c r="R20" s="402"/>
-      <c r="S20" s="402"/>
-      <c r="T20" s="402"/>
-      <c r="U20" s="402"/>
-      <c r="V20" s="402"/>
-      <c r="W20" s="402"/>
-      <c r="X20" s="402"/>
-      <c r="Y20" s="402"/>
-      <c r="Z20" s="402"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
       <c r="AA20" s="37"/>
       <c r="AB20" s="37"/>
       <c r="AC20" s="37"/>
@@ -12007,33 +11995,33 @@
       <c r="BK20" s="104"/>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.15">
-      <c r="A21" s="134"/>
+      <c r="A21" s="131"/>
       <c r="C21" s="38"/>
       <c r="D21" s="103"/>
-      <c r="E21" s="402"/>
-      <c r="F21" s="402"/>
-      <c r="G21" s="402" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="402"/>
-      <c r="I21" s="402"/>
-      <c r="J21" s="402"/>
-      <c r="K21" s="402"/>
-      <c r="L21" s="402"/>
-      <c r="M21" s="402"/>
-      <c r="N21" s="402"/>
-      <c r="O21" s="402"/>
-      <c r="P21" s="402"/>
-      <c r="Q21" s="402"/>
-      <c r="R21" s="402"/>
-      <c r="S21" s="402"/>
-      <c r="T21" s="402"/>
-      <c r="U21" s="402"/>
-      <c r="V21" s="402"/>
-      <c r="W21" s="402"/>
-      <c r="X21" s="402"/>
-      <c r="Y21" s="402"/>
-      <c r="Z21" s="402"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
       <c r="AA21" s="37"/>
       <c r="AB21" s="37"/>
       <c r="AC21" s="37"/>
@@ -12207,7 +12195,7 @@
       <c r="D24" s="103"/>
       <c r="E24" s="103"/>
       <c r="F24" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" s="103"/>
       <c r="H24" s="103"/>
@@ -12332,11 +12320,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AU4"/>
+    <mergeCell ref="AN6:AP6"/>
+    <mergeCell ref="AQ6:BB6"/>
+    <mergeCell ref="BC6:BK6"/>
+    <mergeCell ref="C7:BK7"/>
+    <mergeCell ref="C12:AK12"/>
     <mergeCell ref="AV4:AX4"/>
     <mergeCell ref="AY4:BD4"/>
     <mergeCell ref="BE4:BG4"/>
@@ -12349,11 +12337,11 @@
     <mergeCell ref="AY5:BD5"/>
     <mergeCell ref="BE5:BG5"/>
     <mergeCell ref="BH5:BK5"/>
-    <mergeCell ref="AN6:AP6"/>
-    <mergeCell ref="AQ6:BB6"/>
-    <mergeCell ref="BC6:BK6"/>
-    <mergeCell ref="C7:BK7"/>
-    <mergeCell ref="C12:AK12"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AU4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12575,35 +12563,35 @@
       <c r="BL1" s="21"/>
     </row>
     <row r="2" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="228"/>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="228"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="204"/>
       <c r="AP2" s="25"/>
       <c r="AQ2" s="25"/>
       <c r="AR2" s="25"/>
@@ -12629,33 +12617,33 @@
       <c r="BL2" s="26"/>
     </row>
     <row r="3" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="344"/>
-      <c r="S3" s="344"/>
-      <c r="T3" s="344"/>
-      <c r="U3" s="344"/>
-      <c r="V3" s="344"/>
-      <c r="W3" s="344"/>
-      <c r="X3" s="344"/>
-      <c r="Y3" s="344"/>
-      <c r="Z3" s="344"/>
-      <c r="AA3" s="344"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="322"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="322"/>
+      <c r="T3" s="322"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="322"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="322"/>
+      <c r="Y3" s="322"/>
+      <c r="Z3" s="322"/>
+      <c r="AA3" s="322"/>
       <c r="AB3" s="42"/>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
@@ -12695,488 +12683,488 @@
       <c r="BL3" s="58"/>
     </row>
     <row r="4" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="345" t="s">
+      <c r="A4" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="347"/>
-      <c r="G4" s="348" t="s">
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="349"/>
-      <c r="I4" s="349"/>
-      <c r="J4" s="349"/>
-      <c r="K4" s="349"/>
-      <c r="L4" s="349"/>
-      <c r="M4" s="349"/>
-      <c r="N4" s="349"/>
-      <c r="O4" s="350"/>
-      <c r="P4" s="351" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="327"/>
+      <c r="N4" s="327"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="329" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="352"/>
-      <c r="R4" s="352"/>
-      <c r="S4" s="352"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="353"/>
-      <c r="V4" s="354" t="s">
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="331"/>
+      <c r="V4" s="332" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="355"/>
-      <c r="X4" s="355"/>
-      <c r="Y4" s="355"/>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="355"/>
-      <c r="AB4" s="355"/>
-      <c r="AC4" s="355"/>
-      <c r="AD4" s="355"/>
-      <c r="AE4" s="355"/>
-      <c r="AF4" s="355"/>
-      <c r="AG4" s="355"/>
-      <c r="AH4" s="355"/>
-      <c r="AI4" s="355"/>
-      <c r="AJ4" s="355"/>
-      <c r="AK4" s="355"/>
-      <c r="AL4" s="355"/>
-      <c r="AM4" s="355"/>
-      <c r="AN4" s="355"/>
-      <c r="AO4" s="355"/>
-      <c r="AP4" s="355"/>
-      <c r="AQ4" s="355"/>
-      <c r="AR4" s="355"/>
-      <c r="AS4" s="355"/>
-      <c r="AT4" s="355"/>
-      <c r="AU4" s="355"/>
-      <c r="AV4" s="356"/>
-      <c r="AW4" s="357" t="s">
+      <c r="W4" s="333"/>
+      <c r="X4" s="333"/>
+      <c r="Y4" s="333"/>
+      <c r="Z4" s="333"/>
+      <c r="AA4" s="333"/>
+      <c r="AB4" s="333"/>
+      <c r="AC4" s="333"/>
+      <c r="AD4" s="333"/>
+      <c r="AE4" s="333"/>
+      <c r="AF4" s="333"/>
+      <c r="AG4" s="333"/>
+      <c r="AH4" s="333"/>
+      <c r="AI4" s="333"/>
+      <c r="AJ4" s="333"/>
+      <c r="AK4" s="333"/>
+      <c r="AL4" s="333"/>
+      <c r="AM4" s="333"/>
+      <c r="AN4" s="333"/>
+      <c r="AO4" s="333"/>
+      <c r="AP4" s="333"/>
+      <c r="AQ4" s="333"/>
+      <c r="AR4" s="333"/>
+      <c r="AS4" s="333"/>
+      <c r="AT4" s="333"/>
+      <c r="AU4" s="333"/>
+      <c r="AV4" s="334"/>
+      <c r="AW4" s="335" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="358"/>
-      <c r="AY4" s="359"/>
-      <c r="AZ4" s="259">
+      <c r="AX4" s="336"/>
+      <c r="AY4" s="337"/>
+      <c r="AZ4" s="265">
         <v>45425</v>
       </c>
-      <c r="BA4" s="260"/>
-      <c r="BB4" s="260"/>
-      <c r="BC4" s="260"/>
-      <c r="BD4" s="260"/>
-      <c r="BE4" s="260"/>
-      <c r="BF4" s="357" t="s">
+      <c r="BA4" s="266"/>
+      <c r="BB4" s="266"/>
+      <c r="BC4" s="266"/>
+      <c r="BD4" s="266"/>
+      <c r="BE4" s="266"/>
+      <c r="BF4" s="335" t="s">
         <v>12</v>
       </c>
-      <c r="BG4" s="358"/>
-      <c r="BH4" s="360"/>
-      <c r="BI4" s="361" t="s">
+      <c r="BG4" s="336"/>
+      <c r="BH4" s="338"/>
+      <c r="BI4" s="339" t="s">
         <v>43</v>
       </c>
-      <c r="BJ4" s="265"/>
-      <c r="BK4" s="265"/>
-      <c r="BL4" s="266"/>
+      <c r="BJ4" s="271"/>
+      <c r="BK4" s="271"/>
+      <c r="BL4" s="272"/>
     </row>
     <row r="5" spans="1:64" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="362" t="s">
+      <c r="A5" s="340" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="363"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="364"/>
-      <c r="G5" s="208"/>
-      <c r="H5" s="208"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208"/>
-      <c r="O5" s="365"/>
-      <c r="P5" s="362" t="s">
+      <c r="B5" s="341"/>
+      <c r="C5" s="341"/>
+      <c r="D5" s="341"/>
+      <c r="E5" s="341"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="218"/>
+      <c r="I5" s="218"/>
+      <c r="J5" s="218"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="218"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218"/>
+      <c r="O5" s="343"/>
+      <c r="P5" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="363"/>
-      <c r="R5" s="363"/>
-      <c r="S5" s="363"/>
-      <c r="T5" s="363"/>
-      <c r="U5" s="364"/>
-      <c r="V5" s="366"/>
-      <c r="W5" s="211"/>
-      <c r="X5" s="211"/>
-      <c r="Y5" s="211"/>
-      <c r="Z5" s="211"/>
-      <c r="AA5" s="211"/>
-      <c r="AB5" s="211"/>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="211"/>
-      <c r="AE5" s="211"/>
-      <c r="AF5" s="211"/>
-      <c r="AG5" s="211"/>
-      <c r="AH5" s="211"/>
-      <c r="AI5" s="211"/>
-      <c r="AJ5" s="211"/>
-      <c r="AK5" s="211"/>
-      <c r="AL5" s="211"/>
-      <c r="AM5" s="211"/>
-      <c r="AN5" s="211"/>
-      <c r="AO5" s="341"/>
-      <c r="AP5" s="341"/>
-      <c r="AQ5" s="341"/>
-      <c r="AR5" s="341"/>
-      <c r="AS5" s="341"/>
-      <c r="AT5" s="341"/>
-      <c r="AU5" s="341"/>
-      <c r="AV5" s="342"/>
-      <c r="AW5" s="339" t="s">
+      <c r="Q5" s="341"/>
+      <c r="R5" s="341"/>
+      <c r="S5" s="341"/>
+      <c r="T5" s="341"/>
+      <c r="U5" s="342"/>
+      <c r="V5" s="344"/>
+      <c r="W5" s="221"/>
+      <c r="X5" s="221"/>
+      <c r="Y5" s="221"/>
+      <c r="Z5" s="221"/>
+      <c r="AA5" s="221"/>
+      <c r="AB5" s="221"/>
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="221"/>
+      <c r="AE5" s="221"/>
+      <c r="AF5" s="221"/>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="221"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="221"/>
+      <c r="AK5" s="221"/>
+      <c r="AL5" s="221"/>
+      <c r="AM5" s="221"/>
+      <c r="AN5" s="221"/>
+      <c r="AO5" s="319"/>
+      <c r="AP5" s="319"/>
+      <c r="AQ5" s="319"/>
+      <c r="AR5" s="319"/>
+      <c r="AS5" s="319"/>
+      <c r="AT5" s="319"/>
+      <c r="AU5" s="319"/>
+      <c r="AV5" s="320"/>
+      <c r="AW5" s="318" t="s">
         <v>16</v>
       </c>
-      <c r="AX5" s="340"/>
-      <c r="AY5" s="367"/>
-      <c r="AZ5" s="340"/>
-      <c r="BA5" s="340"/>
-      <c r="BB5" s="340"/>
-      <c r="BC5" s="340"/>
-      <c r="BD5" s="340"/>
-      <c r="BE5" s="340"/>
-      <c r="BF5" s="339" t="s">
+      <c r="AX5" s="294"/>
+      <c r="AY5" s="345"/>
+      <c r="AZ5" s="294"/>
+      <c r="BA5" s="294"/>
+      <c r="BB5" s="294"/>
+      <c r="BC5" s="294"/>
+      <c r="BD5" s="294"/>
+      <c r="BE5" s="294"/>
+      <c r="BF5" s="318" t="s">
         <v>17</v>
       </c>
-      <c r="BG5" s="340"/>
-      <c r="BH5" s="340"/>
-      <c r="BI5" s="339"/>
-      <c r="BJ5" s="341"/>
-      <c r="BK5" s="341"/>
-      <c r="BL5" s="342"/>
+      <c r="BG5" s="294"/>
+      <c r="BH5" s="294"/>
+      <c r="BI5" s="318"/>
+      <c r="BJ5" s="319"/>
+      <c r="BK5" s="319"/>
+      <c r="BL5" s="320"/>
     </row>
     <row r="6" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="293" t="s">
+      <c r="A6" s="379" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="294"/>
-      <c r="C6" s="294"/>
-      <c r="D6" s="294"/>
-      <c r="E6" s="294"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="294"/>
-      <c r="N6" s="294"/>
-      <c r="O6" s="294"/>
-      <c r="P6" s="294"/>
-      <c r="Q6" s="294"/>
-      <c r="R6" s="294"/>
-      <c r="S6" s="294"/>
-      <c r="T6" s="294"/>
-      <c r="U6" s="294"/>
-      <c r="V6" s="294"/>
-      <c r="W6" s="294"/>
-      <c r="X6" s="294"/>
-      <c r="Y6" s="294"/>
-      <c r="Z6" s="294"/>
-      <c r="AA6" s="294"/>
-      <c r="AB6" s="294"/>
-      <c r="AC6" s="294"/>
-      <c r="AD6" s="294"/>
-      <c r="AE6" s="294"/>
-      <c r="AF6" s="294"/>
-      <c r="AG6" s="295"/>
-      <c r="AH6" s="375" t="s">
+      <c r="B6" s="380"/>
+      <c r="C6" s="380"/>
+      <c r="D6" s="380"/>
+      <c r="E6" s="380"/>
+      <c r="F6" s="380"/>
+      <c r="G6" s="380"/>
+      <c r="H6" s="380"/>
+      <c r="I6" s="380"/>
+      <c r="J6" s="380"/>
+      <c r="K6" s="380"/>
+      <c r="L6" s="380"/>
+      <c r="M6" s="380"/>
+      <c r="N6" s="380"/>
+      <c r="O6" s="380"/>
+      <c r="P6" s="380"/>
+      <c r="Q6" s="380"/>
+      <c r="R6" s="380"/>
+      <c r="S6" s="380"/>
+      <c r="T6" s="380"/>
+      <c r="U6" s="380"/>
+      <c r="V6" s="380"/>
+      <c r="W6" s="380"/>
+      <c r="X6" s="380"/>
+      <c r="Y6" s="380"/>
+      <c r="Z6" s="380"/>
+      <c r="AA6" s="380"/>
+      <c r="AB6" s="380"/>
+      <c r="AC6" s="380"/>
+      <c r="AD6" s="380"/>
+      <c r="AE6" s="380"/>
+      <c r="AF6" s="380"/>
+      <c r="AG6" s="381"/>
+      <c r="AH6" s="306" t="s">
         <v>50</v>
       </c>
-      <c r="AI6" s="376"/>
-      <c r="AJ6" s="376"/>
-      <c r="AK6" s="376"/>
-      <c r="AL6" s="376"/>
-      <c r="AM6" s="376"/>
-      <c r="AN6" s="376"/>
-      <c r="AO6" s="376"/>
-      <c r="AP6" s="376"/>
-      <c r="AQ6" s="376"/>
-      <c r="AR6" s="376"/>
-      <c r="AS6" s="377"/>
-      <c r="AT6" s="378" t="s">
+      <c r="AI6" s="307"/>
+      <c r="AJ6" s="307"/>
+      <c r="AK6" s="307"/>
+      <c r="AL6" s="307"/>
+      <c r="AM6" s="307"/>
+      <c r="AN6" s="307"/>
+      <c r="AO6" s="307"/>
+      <c r="AP6" s="307"/>
+      <c r="AQ6" s="307"/>
+      <c r="AR6" s="307"/>
+      <c r="AS6" s="308"/>
+      <c r="AT6" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="AU6" s="297"/>
-      <c r="AV6" s="297"/>
-      <c r="AW6" s="297"/>
-      <c r="AX6" s="297"/>
-      <c r="AY6" s="297"/>
-      <c r="AZ6" s="297"/>
-      <c r="BA6" s="297"/>
-      <c r="BB6" s="297"/>
-      <c r="BC6" s="297"/>
-      <c r="BD6" s="297"/>
-      <c r="BE6" s="297"/>
-      <c r="BF6" s="297"/>
-      <c r="BG6" s="297"/>
-      <c r="BH6" s="297"/>
-      <c r="BI6" s="297"/>
-      <c r="BJ6" s="298"/>
+      <c r="AU6" s="310"/>
+      <c r="AV6" s="310"/>
+      <c r="AW6" s="310"/>
+      <c r="AX6" s="310"/>
+      <c r="AY6" s="310"/>
+      <c r="AZ6" s="310"/>
+      <c r="BA6" s="310"/>
+      <c r="BB6" s="310"/>
+      <c r="BC6" s="310"/>
+      <c r="BD6" s="310"/>
+      <c r="BE6" s="310"/>
+      <c r="BF6" s="310"/>
+      <c r="BG6" s="310"/>
+      <c r="BH6" s="310"/>
+      <c r="BI6" s="310"/>
+      <c r="BJ6" s="311"/>
     </row>
     <row r="7" spans="1:64" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="317" t="s">
+      <c r="B7" s="374" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="318"/>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
-      <c r="G7" s="318"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="318"/>
-      <c r="J7" s="318"/>
-      <c r="K7" s="318"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="317" t="s">
+      <c r="C7" s="375"/>
+      <c r="D7" s="375"/>
+      <c r="E7" s="375"/>
+      <c r="F7" s="375"/>
+      <c r="G7" s="375"/>
+      <c r="H7" s="375"/>
+      <c r="I7" s="375"/>
+      <c r="J7" s="375"/>
+      <c r="K7" s="375"/>
+      <c r="L7" s="376"/>
+      <c r="M7" s="374" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="318"/>
-      <c r="O7" s="318"/>
-      <c r="P7" s="319"/>
-      <c r="Q7" s="317" t="s">
+      <c r="N7" s="375"/>
+      <c r="O7" s="375"/>
+      <c r="P7" s="376"/>
+      <c r="Q7" s="374" t="s">
         <v>51</v>
       </c>
-      <c r="R7" s="318"/>
-      <c r="S7" s="318"/>
-      <c r="T7" s="318"/>
-      <c r="U7" s="320"/>
-      <c r="V7" s="321" t="s">
+      <c r="R7" s="375"/>
+      <c r="S7" s="375"/>
+      <c r="T7" s="375"/>
+      <c r="U7" s="377"/>
+      <c r="V7" s="378" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="319"/>
-      <c r="X7" s="317" t="s">
+      <c r="W7" s="376"/>
+      <c r="X7" s="374" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" s="319"/>
-      <c r="Z7" s="317" t="s">
+      <c r="Y7" s="376"/>
+      <c r="Z7" s="374" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="319"/>
-      <c r="AB7" s="317" t="s">
+      <c r="AA7" s="376"/>
+      <c r="AB7" s="374" t="s">
         <v>53</v>
       </c>
-      <c r="AC7" s="319"/>
-      <c r="AD7" s="317" t="s">
+      <c r="AC7" s="376"/>
+      <c r="AD7" s="374" t="s">
         <v>29</v>
       </c>
-      <c r="AE7" s="318"/>
-      <c r="AF7" s="318"/>
-      <c r="AG7" s="320"/>
-      <c r="AH7" s="382" t="s">
+      <c r="AE7" s="375"/>
+      <c r="AF7" s="375"/>
+      <c r="AG7" s="377"/>
+      <c r="AH7" s="315" t="s">
         <v>30</v>
       </c>
-      <c r="AI7" s="307"/>
-      <c r="AJ7" s="307"/>
-      <c r="AK7" s="307"/>
-      <c r="AL7" s="383"/>
-      <c r="AM7" s="306" t="s">
+      <c r="AI7" s="316"/>
+      <c r="AJ7" s="316"/>
+      <c r="AK7" s="316"/>
+      <c r="AL7" s="317"/>
+      <c r="AM7" s="372" t="s">
         <v>19</v>
       </c>
-      <c r="AN7" s="307"/>
-      <c r="AO7" s="307"/>
-      <c r="AP7" s="307"/>
-      <c r="AQ7" s="307"/>
-      <c r="AR7" s="307"/>
-      <c r="AS7" s="308"/>
-      <c r="AT7" s="379"/>
-      <c r="AU7" s="380"/>
-      <c r="AV7" s="380"/>
-      <c r="AW7" s="380"/>
-      <c r="AX7" s="380"/>
-      <c r="AY7" s="380"/>
-      <c r="AZ7" s="380"/>
-      <c r="BA7" s="380"/>
-      <c r="BB7" s="380"/>
-      <c r="BC7" s="380"/>
-      <c r="BD7" s="380"/>
-      <c r="BE7" s="380"/>
-      <c r="BF7" s="380"/>
-      <c r="BG7" s="380"/>
-      <c r="BH7" s="380"/>
-      <c r="BI7" s="380"/>
-      <c r="BJ7" s="381"/>
+      <c r="AN7" s="316"/>
+      <c r="AO7" s="316"/>
+      <c r="AP7" s="316"/>
+      <c r="AQ7" s="316"/>
+      <c r="AR7" s="316"/>
+      <c r="AS7" s="373"/>
+      <c r="AT7" s="312"/>
+      <c r="AU7" s="313"/>
+      <c r="AV7" s="313"/>
+      <c r="AW7" s="313"/>
+      <c r="AX7" s="313"/>
+      <c r="AY7" s="313"/>
+      <c r="AZ7" s="313"/>
+      <c r="BA7" s="313"/>
+      <c r="BB7" s="313"/>
+      <c r="BC7" s="313"/>
+      <c r="BD7" s="313"/>
+      <c r="BE7" s="313"/>
+      <c r="BF7" s="313"/>
+      <c r="BG7" s="313"/>
+      <c r="BH7" s="313"/>
+      <c r="BI7" s="313"/>
+      <c r="BJ7" s="314"/>
     </row>
     <row r="8" spans="1:64" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="324" t="s">
+      <c r="B8" s="364" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="325"/>
-      <c r="D8" s="325"/>
-      <c r="E8" s="325"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="325"/>
-      <c r="I8" s="325"/>
-      <c r="J8" s="325"/>
-      <c r="K8" s="325"/>
-      <c r="L8" s="326"/>
-      <c r="M8" s="327" t="s">
+      <c r="C8" s="365"/>
+      <c r="D8" s="365"/>
+      <c r="E8" s="365"/>
+      <c r="F8" s="365"/>
+      <c r="G8" s="365"/>
+      <c r="H8" s="365"/>
+      <c r="I8" s="365"/>
+      <c r="J8" s="365"/>
+      <c r="K8" s="365"/>
+      <c r="L8" s="366"/>
+      <c r="M8" s="350" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="328"/>
-      <c r="O8" s="328"/>
-      <c r="P8" s="329"/>
-      <c r="Q8" s="296" t="s">
+      <c r="N8" s="351"/>
+      <c r="O8" s="351"/>
+      <c r="P8" s="352"/>
+      <c r="Q8" s="382" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="297"/>
-      <c r="S8" s="297"/>
-      <c r="T8" s="297"/>
-      <c r="U8" s="298"/>
-      <c r="V8" s="299">
+      <c r="R8" s="310"/>
+      <c r="S8" s="310"/>
+      <c r="T8" s="310"/>
+      <c r="U8" s="311"/>
+      <c r="V8" s="370">
         <v>6</v>
       </c>
-      <c r="W8" s="300"/>
-      <c r="X8" s="301" t="s">
+      <c r="W8" s="371"/>
+      <c r="X8" s="360" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="302"/>
-      <c r="Z8" s="303" t="s">
+      <c r="Y8" s="361"/>
+      <c r="Z8" s="383" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="301" t="s">
+      <c r="AA8" s="384"/>
+      <c r="AB8" s="360" t="s">
         <v>76</v>
       </c>
-      <c r="AC8" s="302"/>
-      <c r="AD8" s="301" t="s">
+      <c r="AC8" s="361"/>
+      <c r="AD8" s="360" t="s">
         <v>31</v>
       </c>
-      <c r="AE8" s="305"/>
-      <c r="AF8" s="305"/>
-      <c r="AG8" s="302"/>
-      <c r="AH8" s="333" t="s">
+      <c r="AE8" s="304"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="361"/>
+      <c r="AH8" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="AI8" s="334"/>
-      <c r="AJ8" s="334"/>
-      <c r="AK8" s="334"/>
-      <c r="AL8" s="335"/>
-      <c r="AM8" s="322" t="s">
+      <c r="AI8" s="299"/>
+      <c r="AJ8" s="299"/>
+      <c r="AK8" s="299"/>
+      <c r="AL8" s="300"/>
+      <c r="AM8" s="362" t="s">
         <v>54</v>
       </c>
-      <c r="AN8" s="323"/>
-      <c r="AO8" s="323"/>
-      <c r="AP8" s="323"/>
-      <c r="AQ8" s="323"/>
-      <c r="AR8" s="323"/>
-      <c r="AS8" s="323"/>
-      <c r="AT8" s="368"/>
-      <c r="AU8" s="369"/>
-      <c r="AV8" s="369"/>
-      <c r="AW8" s="369"/>
-      <c r="AX8" s="369"/>
-      <c r="AY8" s="369"/>
-      <c r="AZ8" s="369"/>
-      <c r="BA8" s="369"/>
-      <c r="BB8" s="369"/>
-      <c r="BC8" s="369"/>
-      <c r="BD8" s="369"/>
-      <c r="BE8" s="369"/>
-      <c r="BF8" s="369"/>
-      <c r="BG8" s="369"/>
-      <c r="BH8" s="369"/>
-      <c r="BI8" s="369"/>
-      <c r="BJ8" s="370"/>
+      <c r="AN8" s="363"/>
+      <c r="AO8" s="363"/>
+      <c r="AP8" s="363"/>
+      <c r="AQ8" s="363"/>
+      <c r="AR8" s="363"/>
+      <c r="AS8" s="363"/>
+      <c r="AT8" s="295"/>
+      <c r="AU8" s="296"/>
+      <c r="AV8" s="296"/>
+      <c r="AW8" s="296"/>
+      <c r="AX8" s="296"/>
+      <c r="AY8" s="296"/>
+      <c r="AZ8" s="296"/>
+      <c r="BA8" s="296"/>
+      <c r="BB8" s="296"/>
+      <c r="BC8" s="296"/>
+      <c r="BD8" s="296"/>
+      <c r="BE8" s="296"/>
+      <c r="BF8" s="296"/>
+      <c r="BG8" s="296"/>
+      <c r="BH8" s="296"/>
+      <c r="BI8" s="296"/>
+      <c r="BJ8" s="297"/>
     </row>
     <row r="9" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="45">
         <v>2</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="200" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="202"/>
-      <c r="H9" s="202"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="301" t="s">
+      <c r="C9" s="201"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="201"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="360" t="s">
         <v>77</v>
       </c>
-      <c r="N9" s="305"/>
-      <c r="O9" s="305"/>
-      <c r="P9" s="302"/>
-      <c r="Q9" s="336" t="s">
+      <c r="N9" s="304"/>
+      <c r="O9" s="304"/>
+      <c r="P9" s="361"/>
+      <c r="Q9" s="367" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="337"/>
-      <c r="S9" s="337"/>
-      <c r="T9" s="337"/>
-      <c r="U9" s="338"/>
-      <c r="V9" s="299">
+      <c r="R9" s="368"/>
+      <c r="S9" s="368"/>
+      <c r="T9" s="368"/>
+      <c r="U9" s="369"/>
+      <c r="V9" s="370">
         <v>50</v>
       </c>
-      <c r="W9" s="300"/>
-      <c r="X9" s="315" t="s">
+      <c r="W9" s="371"/>
+      <c r="X9" s="356" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" s="316"/>
-      <c r="Z9" s="310" t="s">
+      <c r="Y9" s="357"/>
+      <c r="Z9" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="AA9" s="311"/>
-      <c r="AB9" s="301" t="s">
+      <c r="AA9" s="359"/>
+      <c r="AB9" s="360" t="s">
         <v>76</v>
       </c>
-      <c r="AC9" s="302"/>
-      <c r="AD9" s="301" t="s">
+      <c r="AC9" s="361"/>
+      <c r="AD9" s="360" t="s">
         <v>31</v>
       </c>
-      <c r="AE9" s="305"/>
-      <c r="AF9" s="305"/>
-      <c r="AG9" s="302"/>
-      <c r="AH9" s="333" t="s">
+      <c r="AE9" s="304"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="361"/>
+      <c r="AH9" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="AI9" s="334"/>
-      <c r="AJ9" s="334"/>
-      <c r="AK9" s="334"/>
-      <c r="AL9" s="335"/>
-      <c r="AM9" s="371" t="s">
+      <c r="AI9" s="299"/>
+      <c r="AJ9" s="299"/>
+      <c r="AK9" s="299"/>
+      <c r="AL9" s="300"/>
+      <c r="AM9" s="301" t="s">
         <v>58</v>
       </c>
-      <c r="AN9" s="372"/>
-      <c r="AO9" s="372"/>
-      <c r="AP9" s="372"/>
-      <c r="AQ9" s="372"/>
-      <c r="AR9" s="372"/>
-      <c r="AS9" s="372"/>
-      <c r="AT9" s="373"/>
-      <c r="AU9" s="305"/>
-      <c r="AV9" s="305"/>
-      <c r="AW9" s="305"/>
-      <c r="AX9" s="305"/>
-      <c r="AY9" s="305"/>
-      <c r="AZ9" s="305"/>
-      <c r="BA9" s="305"/>
-      <c r="BB9" s="305"/>
-      <c r="BC9" s="305"/>
-      <c r="BD9" s="305"/>
-      <c r="BE9" s="305"/>
-      <c r="BF9" s="305"/>
-      <c r="BG9" s="305"/>
-      <c r="BH9" s="305"/>
-      <c r="BI9" s="305"/>
-      <c r="BJ9" s="374"/>
+      <c r="AN9" s="302"/>
+      <c r="AO9" s="302"/>
+      <c r="AP9" s="302"/>
+      <c r="AQ9" s="302"/>
+      <c r="AR9" s="302"/>
+      <c r="AS9" s="302"/>
+      <c r="AT9" s="303"/>
+      <c r="AU9" s="304"/>
+      <c r="AV9" s="304"/>
+      <c r="AW9" s="304"/>
+      <c r="AX9" s="304"/>
+      <c r="AY9" s="304"/>
+      <c r="AZ9" s="304"/>
+      <c r="BA9" s="304"/>
+      <c r="BB9" s="304"/>
+      <c r="BC9" s="304"/>
+      <c r="BD9" s="304"/>
+      <c r="BE9" s="304"/>
+      <c r="BF9" s="304"/>
+      <c r="BG9" s="304"/>
+      <c r="BH9" s="304"/>
+      <c r="BI9" s="304"/>
+      <c r="BJ9" s="305"/>
     </row>
     <row r="10" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="45">
@@ -13195,57 +13183,57 @@
       <c r="J10" s="91"/>
       <c r="K10" s="91"/>
       <c r="L10" s="54"/>
-      <c r="M10" s="327" t="s">
+      <c r="M10" s="350" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="328"/>
-      <c r="O10" s="328"/>
-      <c r="P10" s="329"/>
-      <c r="Q10" s="312" t="s">
+      <c r="N10" s="351"/>
+      <c r="O10" s="351"/>
+      <c r="P10" s="352"/>
+      <c r="Q10" s="353" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="313"/>
-      <c r="S10" s="313"/>
-      <c r="T10" s="313"/>
-      <c r="U10" s="314"/>
+      <c r="R10" s="354"/>
+      <c r="S10" s="354"/>
+      <c r="T10" s="354"/>
+      <c r="U10" s="355"/>
       <c r="V10" s="93"/>
       <c r="W10" s="92">
         <v>40</v>
       </c>
-      <c r="X10" s="315" t="s">
+      <c r="X10" s="356" t="s">
         <v>80</v>
       </c>
-      <c r="Y10" s="316"/>
-      <c r="Z10" s="310" t="s">
+      <c r="Y10" s="357"/>
+      <c r="Z10" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="311"/>
-      <c r="AB10" s="301" t="s">
+      <c r="AA10" s="359"/>
+      <c r="AB10" s="360" t="s">
         <v>76</v>
       </c>
-      <c r="AC10" s="302"/>
-      <c r="AD10" s="301" t="s">
+      <c r="AC10" s="361"/>
+      <c r="AD10" s="360" t="s">
         <v>31</v>
       </c>
-      <c r="AE10" s="305"/>
-      <c r="AF10" s="305"/>
-      <c r="AG10" s="302"/>
-      <c r="AH10" s="333" t="s">
+      <c r="AE10" s="304"/>
+      <c r="AF10" s="304"/>
+      <c r="AG10" s="361"/>
+      <c r="AH10" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="AI10" s="334"/>
-      <c r="AJ10" s="334"/>
-      <c r="AK10" s="334"/>
-      <c r="AL10" s="335"/>
-      <c r="AM10" s="330" t="s">
+      <c r="AI10" s="299"/>
+      <c r="AJ10" s="299"/>
+      <c r="AK10" s="299"/>
+      <c r="AL10" s="300"/>
+      <c r="AM10" s="347" t="s">
         <v>61</v>
       </c>
-      <c r="AN10" s="331"/>
-      <c r="AO10" s="331"/>
-      <c r="AP10" s="331"/>
-      <c r="AQ10" s="331"/>
-      <c r="AR10" s="331"/>
-      <c r="AS10" s="332"/>
+      <c r="AN10" s="348"/>
+      <c r="AO10" s="348"/>
+      <c r="AP10" s="348"/>
+      <c r="AQ10" s="348"/>
+      <c r="AR10" s="348"/>
+      <c r="AS10" s="349"/>
       <c r="AT10" s="90"/>
       <c r="AU10" s="88"/>
       <c r="AV10" s="88"/>
@@ -13281,57 +13269,57 @@
       <c r="J11" s="91"/>
       <c r="K11" s="91"/>
       <c r="L11" s="54"/>
-      <c r="M11" s="327" t="s">
+      <c r="M11" s="350" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="328"/>
-      <c r="O11" s="328"/>
-      <c r="P11" s="329"/>
-      <c r="Q11" s="312" t="s">
+      <c r="N11" s="351"/>
+      <c r="O11" s="351"/>
+      <c r="P11" s="352"/>
+      <c r="Q11" s="353" t="s">
         <v>82</v>
       </c>
-      <c r="R11" s="313"/>
-      <c r="S11" s="313"/>
-      <c r="T11" s="313"/>
-      <c r="U11" s="314"/>
+      <c r="R11" s="354"/>
+      <c r="S11" s="354"/>
+      <c r="T11" s="354"/>
+      <c r="U11" s="355"/>
       <c r="V11" s="93"/>
       <c r="W11" s="92">
         <v>6</v>
       </c>
-      <c r="X11" s="315" t="s">
+      <c r="X11" s="356" t="s">
         <v>80</v>
       </c>
-      <c r="Y11" s="316"/>
-      <c r="Z11" s="310" t="s">
+      <c r="Y11" s="357"/>
+      <c r="Z11" s="358" t="s">
         <v>79</v>
       </c>
-      <c r="AA11" s="311"/>
-      <c r="AB11" s="301" t="s">
+      <c r="AA11" s="359"/>
+      <c r="AB11" s="360" t="s">
         <v>76</v>
       </c>
-      <c r="AC11" s="302"/>
-      <c r="AD11" s="301" t="s">
+      <c r="AC11" s="361"/>
+      <c r="AD11" s="360" t="s">
         <v>31</v>
       </c>
-      <c r="AE11" s="305"/>
-      <c r="AF11" s="305"/>
-      <c r="AG11" s="302"/>
-      <c r="AH11" s="333" t="s">
+      <c r="AE11" s="304"/>
+      <c r="AF11" s="304"/>
+      <c r="AG11" s="361"/>
+      <c r="AH11" s="298" t="s">
         <v>57</v>
       </c>
-      <c r="AI11" s="334"/>
-      <c r="AJ11" s="334"/>
-      <c r="AK11" s="334"/>
-      <c r="AL11" s="335"/>
-      <c r="AM11" s="330" t="s">
+      <c r="AI11" s="299"/>
+      <c r="AJ11" s="299"/>
+      <c r="AK11" s="299"/>
+      <c r="AL11" s="300"/>
+      <c r="AM11" s="347" t="s">
         <v>82</v>
       </c>
-      <c r="AN11" s="331"/>
-      <c r="AO11" s="331"/>
-      <c r="AP11" s="331"/>
-      <c r="AQ11" s="331"/>
-      <c r="AR11" s="331"/>
-      <c r="AS11" s="332"/>
+      <c r="AN11" s="348"/>
+      <c r="AO11" s="348"/>
+      <c r="AP11" s="348"/>
+      <c r="AQ11" s="348"/>
+      <c r="AR11" s="348"/>
+      <c r="AS11" s="349"/>
       <c r="AT11" s="90"/>
       <c r="AU11" s="88"/>
       <c r="AV11" s="88"/>
@@ -13359,60 +13347,68 @@
       <c r="B13" s="46"/>
     </row>
     <row r="14" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="309"/>
-      <c r="B14" s="309"/>
+      <c r="A14" s="346"/>
+      <c r="B14" s="346"/>
     </row>
     <row r="15" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="309"/>
-      <c r="B15" s="309"/>
+      <c r="A15" s="346"/>
+      <c r="B15" s="346"/>
     </row>
     <row r="16" spans="1:64" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="309"/>
-      <c r="B16" s="309"/>
+      <c r="A16" s="346"/>
+      <c r="B16" s="346"/>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="309"/>
-      <c r="B17" s="309"/>
+      <c r="A17" s="346"/>
+      <c r="B17" s="346"/>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="309"/>
-      <c r="B18" s="309"/>
+      <c r="A18" s="346"/>
+      <c r="B18" s="346"/>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="309"/>
-      <c r="B19" s="309"/>
+      <c r="A19" s="346"/>
+      <c r="B19" s="346"/>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="309"/>
-      <c r="B20" s="309"/>
+      <c r="A20" s="346"/>
+      <c r="B20" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="AT8:BJ8"/>
-    <mergeCell ref="AH9:AL9"/>
-    <mergeCell ref="AM9:AS9"/>
-    <mergeCell ref="AT9:BJ9"/>
-    <mergeCell ref="AH8:AL8"/>
-    <mergeCell ref="AH6:AS6"/>
-    <mergeCell ref="AT6:BJ7"/>
-    <mergeCell ref="AH7:AL7"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A6:AG6"/>
+    <mergeCell ref="Q8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="M9:P9"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="AM11:AS11"/>
@@ -13426,43 +13422,35 @@
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AD11:AG11"/>
     <mergeCell ref="AH11:AL11"/>
-    <mergeCell ref="AM8:AS8"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AM7:AS7"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AB10:AC10"/>
     <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="Q11:U11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A6:AG6"/>
-    <mergeCell ref="Q8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AV4"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="AT8:BJ8"/>
+    <mergeCell ref="AH9:AL9"/>
+    <mergeCell ref="AM9:AS9"/>
+    <mergeCell ref="AT9:BJ9"/>
+    <mergeCell ref="AH8:AL8"/>
+    <mergeCell ref="AH6:AS6"/>
+    <mergeCell ref="AT6:BJ7"/>
+    <mergeCell ref="AH7:AL7"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AM8:AS8"/>
+    <mergeCell ref="AM7:AS7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13474,7 +13462,7 @@
   <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13686,35 +13674,35 @@
       <c r="BC1" s="23"/>
     </row>
     <row r="2" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A2" s="227" t="s">
+      <c r="A2" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="228"/>
-      <c r="V2" s="228"/>
-      <c r="W2" s="228"/>
-      <c r="X2" s="228"/>
-      <c r="Y2" s="228"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="228"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="204"/>
+      <c r="AA2" s="204"/>
       <c r="AH2" s="25"/>
       <c r="AI2" s="25"/>
       <c r="AJ2" s="25"/>
@@ -13739,33 +13727,33 @@
       <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A3" s="343"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="344"/>
-      <c r="R3" s="344"/>
-      <c r="S3" s="344"/>
-      <c r="T3" s="344"/>
-      <c r="U3" s="344"/>
-      <c r="V3" s="344"/>
-      <c r="W3" s="344"/>
-      <c r="X3" s="344"/>
-      <c r="Y3" s="344"/>
-      <c r="Z3" s="344"/>
-      <c r="AA3" s="344"/>
+      <c r="A3" s="321"/>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="322"/>
+      <c r="N3" s="322"/>
+      <c r="O3" s="322"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="322"/>
+      <c r="R3" s="322"/>
+      <c r="S3" s="322"/>
+      <c r="T3" s="322"/>
+      <c r="U3" s="322"/>
+      <c r="V3" s="322"/>
+      <c r="W3" s="322"/>
+      <c r="X3" s="322"/>
+      <c r="Y3" s="322"/>
+      <c r="Z3" s="322"/>
+      <c r="AA3" s="322"/>
       <c r="AB3" s="42"/>
       <c r="AC3" s="42"/>
       <c r="AD3" s="42"/>
@@ -13796,144 +13784,144 @@
       <c r="BC3" s="44"/>
     </row>
     <row r="4" spans="1:55" ht="18" x14ac:dyDescent="0.15">
-      <c r="A4" s="345" t="s">
+      <c r="A4" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="347"/>
-      <c r="G4" s="348" t="s">
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="349"/>
-      <c r="I4" s="349"/>
-      <c r="J4" s="349"/>
-      <c r="K4" s="349"/>
-      <c r="L4" s="349"/>
-      <c r="M4" s="349"/>
-      <c r="N4" s="349"/>
-      <c r="O4" s="350"/>
-      <c r="P4" s="351" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
+      <c r="M4" s="327"/>
+      <c r="N4" s="327"/>
+      <c r="O4" s="328"/>
+      <c r="P4" s="329" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="352"/>
-      <c r="R4" s="352"/>
-      <c r="S4" s="352"/>
-      <c r="T4" s="352"/>
-      <c r="U4" s="353"/>
-      <c r="V4" s="354" t="s">
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="331"/>
+      <c r="V4" s="332" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="355"/>
-      <c r="X4" s="355"/>
-      <c r="Y4" s="355"/>
-      <c r="Z4" s="355"/>
-      <c r="AA4" s="355"/>
-      <c r="AB4" s="355"/>
-      <c r="AC4" s="355"/>
-      <c r="AD4" s="355"/>
-      <c r="AE4" s="355"/>
-      <c r="AF4" s="355"/>
-      <c r="AG4" s="355"/>
-      <c r="AH4" s="355"/>
-      <c r="AI4" s="355"/>
-      <c r="AJ4" s="355"/>
-      <c r="AK4" s="356"/>
-      <c r="AL4" s="357" t="s">
+      <c r="W4" s="333"/>
+      <c r="X4" s="333"/>
+      <c r="Y4" s="333"/>
+      <c r="Z4" s="333"/>
+      <c r="AA4" s="333"/>
+      <c r="AB4" s="333"/>
+      <c r="AC4" s="333"/>
+      <c r="AD4" s="333"/>
+      <c r="AE4" s="333"/>
+      <c r="AF4" s="333"/>
+      <c r="AG4" s="333"/>
+      <c r="AH4" s="333"/>
+      <c r="AI4" s="333"/>
+      <c r="AJ4" s="333"/>
+      <c r="AK4" s="334"/>
+      <c r="AL4" s="335" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="358"/>
-      <c r="AN4" s="359"/>
-      <c r="AO4" s="259">
+      <c r="AM4" s="336"/>
+      <c r="AN4" s="337"/>
+      <c r="AO4" s="265">
         <v>45425</v>
       </c>
-      <c r="AP4" s="260"/>
-      <c r="AQ4" s="260"/>
-      <c r="AR4" s="260"/>
-      <c r="AS4" s="260"/>
-      <c r="AT4" s="260"/>
-      <c r="AU4" s="357" t="s">
+      <c r="AP4" s="266"/>
+      <c r="AQ4" s="266"/>
+      <c r="AR4" s="266"/>
+      <c r="AS4" s="266"/>
+      <c r="AT4" s="266"/>
+      <c r="AU4" s="335" t="s">
         <v>12</v>
       </c>
-      <c r="AV4" s="358"/>
-      <c r="AW4" s="359"/>
-      <c r="AX4" s="384" t="s">
+      <c r="AV4" s="336"/>
+      <c r="AW4" s="337"/>
+      <c r="AX4" s="397" t="s">
         <v>43</v>
       </c>
-      <c r="AY4" s="260"/>
-      <c r="AZ4" s="260"/>
-      <c r="BA4" s="260"/>
-      <c r="BB4" s="260"/>
-      <c r="BC4" s="385"/>
+      <c r="AY4" s="266"/>
+      <c r="AZ4" s="266"/>
+      <c r="BA4" s="266"/>
+      <c r="BB4" s="266"/>
+      <c r="BC4" s="398"/>
     </row>
     <row r="5" spans="1:55" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="267" t="s">
+      <c r="A5" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="386"/>
-      <c r="C5" s="386"/>
-      <c r="D5" s="386"/>
-      <c r="E5" s="386"/>
-      <c r="F5" s="387"/>
-      <c r="G5" s="388" t="s">
+      <c r="B5" s="399"/>
+      <c r="C5" s="399"/>
+      <c r="D5" s="399"/>
+      <c r="E5" s="399"/>
+      <c r="F5" s="400"/>
+      <c r="G5" s="401" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="388"/>
-      <c r="I5" s="388"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="388"/>
-      <c r="M5" s="388"/>
-      <c r="N5" s="388"/>
-      <c r="O5" s="389"/>
-      <c r="P5" s="267" t="s">
+      <c r="H5" s="401"/>
+      <c r="I5" s="401"/>
+      <c r="J5" s="401"/>
+      <c r="K5" s="401"/>
+      <c r="L5" s="401"/>
+      <c r="M5" s="401"/>
+      <c r="N5" s="401"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="268"/>
-      <c r="R5" s="268"/>
-      <c r="S5" s="268"/>
-      <c r="T5" s="268"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="272"/>
-      <c r="W5" s="273"/>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="273"/>
-      <c r="Z5" s="273"/>
-      <c r="AA5" s="273"/>
-      <c r="AB5" s="273"/>
-      <c r="AC5" s="273"/>
-      <c r="AD5" s="273"/>
-      <c r="AE5" s="273"/>
-      <c r="AF5" s="273"/>
-      <c r="AG5" s="273"/>
-      <c r="AH5" s="273"/>
-      <c r="AI5" s="273"/>
-      <c r="AJ5" s="273"/>
-      <c r="AK5" s="274"/>
-      <c r="AL5" s="275" t="s">
+      <c r="Q5" s="274"/>
+      <c r="R5" s="274"/>
+      <c r="S5" s="274"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="275"/>
+      <c r="V5" s="278"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="279"/>
+      <c r="Y5" s="279"/>
+      <c r="Z5" s="279"/>
+      <c r="AA5" s="279"/>
+      <c r="AB5" s="279"/>
+      <c r="AC5" s="279"/>
+      <c r="AD5" s="279"/>
+      <c r="AE5" s="279"/>
+      <c r="AF5" s="279"/>
+      <c r="AG5" s="279"/>
+      <c r="AH5" s="279"/>
+      <c r="AI5" s="279"/>
+      <c r="AJ5" s="279"/>
+      <c r="AK5" s="280"/>
+      <c r="AL5" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="276"/>
-      <c r="AN5" s="277"/>
-      <c r="AO5" s="276"/>
-      <c r="AP5" s="276"/>
-      <c r="AQ5" s="276"/>
-      <c r="AR5" s="276"/>
-      <c r="AS5" s="276"/>
-      <c r="AT5" s="276"/>
-      <c r="AU5" s="275" t="s">
+      <c r="AM5" s="282"/>
+      <c r="AN5" s="283"/>
+      <c r="AO5" s="282"/>
+      <c r="AP5" s="282"/>
+      <c r="AQ5" s="282"/>
+      <c r="AR5" s="282"/>
+      <c r="AS5" s="282"/>
+      <c r="AT5" s="282"/>
+      <c r="AU5" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="AV5" s="276"/>
-      <c r="AW5" s="277"/>
-      <c r="AX5" s="272"/>
-      <c r="AY5" s="273"/>
-      <c r="AZ5" s="273"/>
-      <c r="BA5" s="273"/>
-      <c r="BB5" s="273"/>
-      <c r="BC5" s="274"/>
+      <c r="AV5" s="282"/>
+      <c r="AW5" s="283"/>
+      <c r="AX5" s="278"/>
+      <c r="AY5" s="279"/>
+      <c r="AZ5" s="279"/>
+      <c r="BA5" s="279"/>
+      <c r="BB5" s="279"/>
+      <c r="BC5" s="280"/>
     </row>
     <row r="6" spans="1:55" s="35" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="48"/>
@@ -13995,773 +13983,805 @@
       <c r="A7" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="399" t="s">
+      <c r="B7" s="394" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="400"/>
-      <c r="D7" s="400"/>
-      <c r="E7" s="400"/>
-      <c r="F7" s="400"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="400"/>
-      <c r="J7" s="400"/>
-      <c r="K7" s="400"/>
-      <c r="L7" s="400"/>
-      <c r="M7" s="400"/>
-      <c r="N7" s="400"/>
-      <c r="O7" s="401"/>
-      <c r="P7" s="391" t="s">
+      <c r="C7" s="395"/>
+      <c r="D7" s="395"/>
+      <c r="E7" s="395"/>
+      <c r="F7" s="395"/>
+      <c r="G7" s="395"/>
+      <c r="H7" s="395"/>
+      <c r="I7" s="395"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="395"/>
+      <c r="L7" s="395"/>
+      <c r="M7" s="395"/>
+      <c r="N7" s="395"/>
+      <c r="O7" s="396"/>
+      <c r="P7" s="392" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="391"/>
-      <c r="R7" s="391"/>
-      <c r="S7" s="391"/>
-      <c r="T7" s="392"/>
-      <c r="U7" s="390" t="s">
+      <c r="Q7" s="392"/>
+      <c r="R7" s="392"/>
+      <c r="S7" s="392"/>
+      <c r="T7" s="393"/>
+      <c r="U7" s="391" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="391"/>
-      <c r="W7" s="391"/>
-      <c r="X7" s="391"/>
-      <c r="Y7" s="391"/>
-      <c r="Z7" s="391"/>
-      <c r="AA7" s="391"/>
-      <c r="AB7" s="391"/>
-      <c r="AC7" s="391"/>
-      <c r="AD7" s="391"/>
-      <c r="AE7" s="391"/>
-      <c r="AF7" s="391"/>
-      <c r="AG7" s="391"/>
-      <c r="AH7" s="391"/>
-      <c r="AI7" s="391"/>
-      <c r="AJ7" s="391"/>
-      <c r="AK7" s="391"/>
-      <c r="AL7" s="391"/>
-      <c r="AM7" s="391"/>
-      <c r="AN7" s="391"/>
-      <c r="AO7" s="391"/>
-      <c r="AP7" s="391"/>
-      <c r="AQ7" s="391"/>
-      <c r="AR7" s="391"/>
-      <c r="AS7" s="391"/>
-      <c r="AT7" s="391"/>
-      <c r="AU7" s="391"/>
-      <c r="AV7" s="391"/>
-      <c r="AW7" s="391"/>
-      <c r="AX7" s="391"/>
-      <c r="AY7" s="391"/>
-      <c r="AZ7" s="391"/>
-      <c r="BA7" s="391"/>
-      <c r="BB7" s="391"/>
-      <c r="BC7" s="392"/>
+      <c r="V7" s="392"/>
+      <c r="W7" s="392"/>
+      <c r="X7" s="392"/>
+      <c r="Y7" s="392"/>
+      <c r="Z7" s="392"/>
+      <c r="AA7" s="392"/>
+      <c r="AB7" s="392"/>
+      <c r="AC7" s="392"/>
+      <c r="AD7" s="392"/>
+      <c r="AE7" s="392"/>
+      <c r="AF7" s="392"/>
+      <c r="AG7" s="392"/>
+      <c r="AH7" s="392"/>
+      <c r="AI7" s="392"/>
+      <c r="AJ7" s="392"/>
+      <c r="AK7" s="392"/>
+      <c r="AL7" s="392"/>
+      <c r="AM7" s="392"/>
+      <c r="AN7" s="392"/>
+      <c r="AO7" s="392"/>
+      <c r="AP7" s="392"/>
+      <c r="AQ7" s="392"/>
+      <c r="AR7" s="392"/>
+      <c r="AS7" s="392"/>
+      <c r="AT7" s="392"/>
+      <c r="AU7" s="392"/>
+      <c r="AV7" s="392"/>
+      <c r="AW7" s="392"/>
+      <c r="AX7" s="392"/>
+      <c r="AY7" s="392"/>
+      <c r="AZ7" s="392"/>
+      <c r="BA7" s="392"/>
+      <c r="BB7" s="392"/>
+      <c r="BC7" s="393"/>
     </row>
     <row r="8" spans="1:55" ht="10.8" x14ac:dyDescent="0.15">
-      <c r="A8" s="405">
+      <c r="A8" s="135">
         <v>1</v>
       </c>
-      <c r="B8" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="397"/>
-      <c r="D8" s="397"/>
-      <c r="E8" s="397"/>
-      <c r="F8" s="397"/>
-      <c r="G8" s="397"/>
-      <c r="H8" s="397"/>
-      <c r="I8" s="397"/>
-      <c r="J8" s="397"/>
-      <c r="K8" s="397"/>
-      <c r="L8" s="397"/>
-      <c r="M8" s="397"/>
-      <c r="N8" s="397"/>
-      <c r="O8" s="398"/>
+      <c r="B8" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="389"/>
+      <c r="D8" s="389"/>
+      <c r="E8" s="389"/>
+      <c r="F8" s="389"/>
+      <c r="G8" s="389"/>
+      <c r="H8" s="389"/>
+      <c r="I8" s="389"/>
+      <c r="J8" s="389"/>
+      <c r="K8" s="389"/>
+      <c r="L8" s="389"/>
+      <c r="M8" s="389"/>
+      <c r="N8" s="389"/>
+      <c r="O8" s="390"/>
       <c r="P8" s="110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q8" s="110"/>
       <c r="R8" s="110"/>
       <c r="S8" s="110"/>
       <c r="T8" s="111"/>
-      <c r="U8" s="393" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="394"/>
-      <c r="W8" s="394"/>
-      <c r="X8" s="394"/>
-      <c r="Y8" s="394"/>
-      <c r="Z8" s="394"/>
-      <c r="AA8" s="394"/>
-      <c r="AB8" s="394"/>
-      <c r="AC8" s="394"/>
-      <c r="AD8" s="394"/>
-      <c r="AE8" s="394"/>
-      <c r="AF8" s="394"/>
-      <c r="AG8" s="394"/>
-      <c r="AH8" s="394"/>
-      <c r="AI8" s="394"/>
-      <c r="AJ8" s="394"/>
-      <c r="AK8" s="394"/>
-      <c r="AL8" s="394"/>
-      <c r="AM8" s="394"/>
-      <c r="AN8" s="394"/>
-      <c r="AO8" s="394"/>
-      <c r="AP8" s="394"/>
-      <c r="AQ8" s="394"/>
-      <c r="AR8" s="394"/>
-      <c r="AS8" s="394"/>
-      <c r="AT8" s="394"/>
-      <c r="AU8" s="394"/>
-      <c r="AV8" s="394"/>
-      <c r="AW8" s="394"/>
-      <c r="AX8" s="394"/>
-      <c r="AY8" s="394"/>
-      <c r="AZ8" s="394"/>
-      <c r="BA8" s="394"/>
-      <c r="BB8" s="394"/>
-      <c r="BC8" s="395"/>
+      <c r="U8" s="385" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="386"/>
+      <c r="W8" s="386"/>
+      <c r="X8" s="386"/>
+      <c r="Y8" s="386"/>
+      <c r="Z8" s="386"/>
+      <c r="AA8" s="386"/>
+      <c r="AB8" s="386"/>
+      <c r="AC8" s="386"/>
+      <c r="AD8" s="386"/>
+      <c r="AE8" s="386"/>
+      <c r="AF8" s="386"/>
+      <c r="AG8" s="386"/>
+      <c r="AH8" s="386"/>
+      <c r="AI8" s="386"/>
+      <c r="AJ8" s="386"/>
+      <c r="AK8" s="386"/>
+      <c r="AL8" s="386"/>
+      <c r="AM8" s="386"/>
+      <c r="AN8" s="386"/>
+      <c r="AO8" s="386"/>
+      <c r="AP8" s="386"/>
+      <c r="AQ8" s="386"/>
+      <c r="AR8" s="386"/>
+      <c r="AS8" s="386"/>
+      <c r="AT8" s="386"/>
+      <c r="AU8" s="386"/>
+      <c r="AV8" s="386"/>
+      <c r="AW8" s="386"/>
+      <c r="AX8" s="386"/>
+      <c r="AY8" s="386"/>
+      <c r="AZ8" s="386"/>
+      <c r="BA8" s="386"/>
+      <c r="BB8" s="386"/>
+      <c r="BC8" s="387"/>
     </row>
     <row r="9" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="116">
         <v>2</v>
       </c>
-      <c r="B9" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="397"/>
-      <c r="D9" s="397"/>
-      <c r="E9" s="397"/>
-      <c r="F9" s="397"/>
-      <c r="G9" s="397"/>
-      <c r="H9" s="397"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="397"/>
-      <c r="K9" s="397"/>
-      <c r="L9" s="397"/>
-      <c r="M9" s="397"/>
-      <c r="N9" s="397"/>
-      <c r="O9" s="398"/>
+      <c r="B9" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="389"/>
+      <c r="D9" s="389"/>
+      <c r="E9" s="389"/>
+      <c r="F9" s="389"/>
+      <c r="G9" s="389"/>
+      <c r="H9" s="389"/>
+      <c r="I9" s="389"/>
+      <c r="J9" s="389"/>
+      <c r="K9" s="389"/>
+      <c r="L9" s="389"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="389"/>
+      <c r="O9" s="390"/>
       <c r="P9" s="110" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="110"/>
       <c r="R9" s="110"/>
       <c r="S9" s="110"/>
       <c r="T9" s="111"/>
-      <c r="U9" s="393" t="s">
-        <v>108</v>
-      </c>
-      <c r="V9" s="394"/>
-      <c r="W9" s="394"/>
-      <c r="X9" s="394"/>
-      <c r="Y9" s="394"/>
-      <c r="Z9" s="394"/>
-      <c r="AA9" s="394"/>
-      <c r="AB9" s="394"/>
-      <c r="AC9" s="394"/>
-      <c r="AD9" s="394"/>
-      <c r="AE9" s="394"/>
-      <c r="AF9" s="394"/>
-      <c r="AG9" s="394"/>
-      <c r="AH9" s="394"/>
-      <c r="AI9" s="394"/>
-      <c r="AJ9" s="394"/>
-      <c r="AK9" s="394"/>
-      <c r="AL9" s="394"/>
-      <c r="AM9" s="394"/>
-      <c r="AN9" s="394"/>
-      <c r="AO9" s="394"/>
-      <c r="AP9" s="394"/>
-      <c r="AQ9" s="394"/>
-      <c r="AR9" s="394"/>
-      <c r="AS9" s="394"/>
-      <c r="AT9" s="394"/>
-      <c r="AU9" s="394"/>
-      <c r="AV9" s="394"/>
-      <c r="AW9" s="394"/>
-      <c r="AX9" s="394"/>
-      <c r="AY9" s="394"/>
-      <c r="AZ9" s="394"/>
-      <c r="BA9" s="394"/>
-      <c r="BB9" s="394"/>
-      <c r="BC9" s="395"/>
+      <c r="U9" s="385" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="386"/>
+      <c r="W9" s="386"/>
+      <c r="X9" s="386"/>
+      <c r="Y9" s="386"/>
+      <c r="Z9" s="386"/>
+      <c r="AA9" s="386"/>
+      <c r="AB9" s="386"/>
+      <c r="AC9" s="386"/>
+      <c r="AD9" s="386"/>
+      <c r="AE9" s="386"/>
+      <c r="AF9" s="386"/>
+      <c r="AG9" s="386"/>
+      <c r="AH9" s="386"/>
+      <c r="AI9" s="386"/>
+      <c r="AJ9" s="386"/>
+      <c r="AK9" s="386"/>
+      <c r="AL9" s="386"/>
+      <c r="AM9" s="386"/>
+      <c r="AN9" s="386"/>
+      <c r="AO9" s="386"/>
+      <c r="AP9" s="386"/>
+      <c r="AQ9" s="386"/>
+      <c r="AR9" s="386"/>
+      <c r="AS9" s="386"/>
+      <c r="AT9" s="386"/>
+      <c r="AU9" s="386"/>
+      <c r="AV9" s="386"/>
+      <c r="AW9" s="386"/>
+      <c r="AX9" s="386"/>
+      <c r="AY9" s="386"/>
+      <c r="AZ9" s="386"/>
+      <c r="BA9" s="386"/>
+      <c r="BB9" s="386"/>
+      <c r="BC9" s="387"/>
     </row>
     <row r="10" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="406"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132"/>
+      <c r="A10" s="135">
+        <v>3</v>
+      </c>
+      <c r="B10" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="389"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="389"/>
+      <c r="I10" s="389"/>
+      <c r="J10" s="389"/>
+      <c r="K10" s="389"/>
+      <c r="L10" s="389"/>
+      <c r="M10" s="389"/>
+      <c r="N10" s="389"/>
+      <c r="O10" s="390"/>
       <c r="P10" s="112" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="110"/>
       <c r="R10" s="110"/>
       <c r="S10" s="110"/>
       <c r="T10" s="111"/>
-      <c r="U10" s="393" t="s">
-        <v>110</v>
-      </c>
-      <c r="V10" s="394"/>
-      <c r="W10" s="394"/>
-      <c r="X10" s="394"/>
-      <c r="Y10" s="394"/>
-      <c r="Z10" s="394"/>
-      <c r="AA10" s="394"/>
-      <c r="AB10" s="394"/>
-      <c r="AC10" s="394"/>
-      <c r="AD10" s="394"/>
-      <c r="AE10" s="394"/>
-      <c r="AF10" s="394"/>
-      <c r="AG10" s="394"/>
-      <c r="AH10" s="394"/>
-      <c r="AI10" s="394"/>
-      <c r="AJ10" s="394"/>
-      <c r="AK10" s="394"/>
-      <c r="AL10" s="394"/>
-      <c r="AM10" s="394"/>
-      <c r="AN10" s="394"/>
-      <c r="AO10" s="394"/>
-      <c r="AP10" s="394"/>
-      <c r="AQ10" s="394"/>
-      <c r="AR10" s="394"/>
-      <c r="AS10" s="394"/>
-      <c r="AT10" s="394"/>
-      <c r="AU10" s="394"/>
-      <c r="AV10" s="394"/>
-      <c r="AW10" s="394"/>
-      <c r="AX10" s="394"/>
-      <c r="AY10" s="394"/>
-      <c r="AZ10" s="394"/>
-      <c r="BA10" s="394"/>
-      <c r="BB10" s="394"/>
-      <c r="BC10" s="395"/>
+      <c r="U10" s="385" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="386"/>
+      <c r="W10" s="386"/>
+      <c r="X10" s="386"/>
+      <c r="Y10" s="386"/>
+      <c r="Z10" s="386"/>
+      <c r="AA10" s="386"/>
+      <c r="AB10" s="386"/>
+      <c r="AC10" s="386"/>
+      <c r="AD10" s="386"/>
+      <c r="AE10" s="386"/>
+      <c r="AF10" s="386"/>
+      <c r="AG10" s="386"/>
+      <c r="AH10" s="386"/>
+      <c r="AI10" s="386"/>
+      <c r="AJ10" s="386"/>
+      <c r="AK10" s="386"/>
+      <c r="AL10" s="386"/>
+      <c r="AM10" s="386"/>
+      <c r="AN10" s="386"/>
+      <c r="AO10" s="386"/>
+      <c r="AP10" s="386"/>
+      <c r="AQ10" s="386"/>
+      <c r="AR10" s="386"/>
+      <c r="AS10" s="386"/>
+      <c r="AT10" s="386"/>
+      <c r="AU10" s="386"/>
+      <c r="AV10" s="386"/>
+      <c r="AW10" s="386"/>
+      <c r="AX10" s="386"/>
+      <c r="AY10" s="386"/>
+      <c r="AZ10" s="386"/>
+      <c r="BA10" s="386"/>
+      <c r="BB10" s="386"/>
+      <c r="BC10" s="387"/>
     </row>
     <row r="11" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="405">
-        <v>3</v>
-      </c>
-      <c r="B11" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="397"/>
-      <c r="G11" s="397"/>
-      <c r="H11" s="397"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="397"/>
-      <c r="K11" s="397"/>
-      <c r="L11" s="397"/>
-      <c r="M11" s="397"/>
-      <c r="N11" s="397"/>
-      <c r="O11" s="398"/>
+      <c r="A11" s="116">
+        <v>4</v>
+      </c>
+      <c r="B11" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="389"/>
+      <c r="D11" s="389"/>
+      <c r="E11" s="389"/>
+      <c r="F11" s="389"/>
+      <c r="G11" s="389"/>
+      <c r="H11" s="389"/>
+      <c r="I11" s="389"/>
+      <c r="J11" s="389"/>
+      <c r="K11" s="389"/>
+      <c r="L11" s="389"/>
+      <c r="M11" s="389"/>
+      <c r="N11" s="389"/>
+      <c r="O11" s="390"/>
       <c r="P11" s="112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="110"/>
       <c r="R11" s="110"/>
       <c r="S11" s="110"/>
       <c r="T11" s="111"/>
-      <c r="U11" s="393" t="s">
-        <v>111</v>
-      </c>
-      <c r="V11" s="394"/>
-      <c r="W11" s="394"/>
-      <c r="X11" s="394"/>
-      <c r="Y11" s="394"/>
-      <c r="Z11" s="394"/>
-      <c r="AA11" s="394"/>
-      <c r="AB11" s="394"/>
-      <c r="AC11" s="394"/>
-      <c r="AD11" s="394"/>
-      <c r="AE11" s="394"/>
-      <c r="AF11" s="394"/>
-      <c r="AG11" s="394"/>
-      <c r="AH11" s="394"/>
-      <c r="AI11" s="394"/>
-      <c r="AJ11" s="394"/>
-      <c r="AK11" s="394"/>
-      <c r="AL11" s="394"/>
-      <c r="AM11" s="394"/>
-      <c r="AN11" s="394"/>
-      <c r="AO11" s="394"/>
-      <c r="AP11" s="394"/>
-      <c r="AQ11" s="394"/>
-      <c r="AR11" s="394"/>
-      <c r="AS11" s="394"/>
-      <c r="AT11" s="394"/>
-      <c r="AU11" s="394"/>
-      <c r="AV11" s="394"/>
-      <c r="AW11" s="394"/>
-      <c r="AX11" s="394"/>
-      <c r="AY11" s="394"/>
-      <c r="AZ11" s="394"/>
-      <c r="BA11" s="394"/>
-      <c r="BB11" s="394"/>
-      <c r="BC11" s="395"/>
+      <c r="U11" s="385" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="386"/>
+      <c r="W11" s="386"/>
+      <c r="X11" s="386"/>
+      <c r="Y11" s="386"/>
+      <c r="Z11" s="386"/>
+      <c r="AA11" s="386"/>
+      <c r="AB11" s="386"/>
+      <c r="AC11" s="386"/>
+      <c r="AD11" s="386"/>
+      <c r="AE11" s="386"/>
+      <c r="AF11" s="386"/>
+      <c r="AG11" s="386"/>
+      <c r="AH11" s="386"/>
+      <c r="AI11" s="386"/>
+      <c r="AJ11" s="386"/>
+      <c r="AK11" s="386"/>
+      <c r="AL11" s="386"/>
+      <c r="AM11" s="386"/>
+      <c r="AN11" s="386"/>
+      <c r="AO11" s="386"/>
+      <c r="AP11" s="386"/>
+      <c r="AQ11" s="386"/>
+      <c r="AR11" s="386"/>
+      <c r="AS11" s="386"/>
+      <c r="AT11" s="386"/>
+      <c r="AU11" s="386"/>
+      <c r="AV11" s="386"/>
+      <c r="AW11" s="386"/>
+      <c r="AX11" s="386"/>
+      <c r="AY11" s="386"/>
+      <c r="AZ11" s="386"/>
+      <c r="BA11" s="386"/>
+      <c r="BB11" s="386"/>
+      <c r="BC11" s="387"/>
     </row>
     <row r="12" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="116">
-        <v>4</v>
-      </c>
-      <c r="B12" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="397"/>
-      <c r="D12" s="397"/>
-      <c r="E12" s="397"/>
-      <c r="F12" s="397"/>
-      <c r="G12" s="397"/>
-      <c r="H12" s="397"/>
-      <c r="I12" s="397"/>
-      <c r="J12" s="397"/>
-      <c r="K12" s="397"/>
-      <c r="L12" s="397"/>
-      <c r="M12" s="397"/>
-      <c r="N12" s="397"/>
-      <c r="O12" s="398"/>
+      <c r="A12" s="135">
+        <v>5</v>
+      </c>
+      <c r="B12" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="389"/>
+      <c r="D12" s="389"/>
+      <c r="E12" s="389"/>
+      <c r="F12" s="389"/>
+      <c r="G12" s="389"/>
+      <c r="H12" s="389"/>
+      <c r="I12" s="389"/>
+      <c r="J12" s="389"/>
+      <c r="K12" s="389"/>
+      <c r="L12" s="389"/>
+      <c r="M12" s="389"/>
+      <c r="N12" s="389"/>
+      <c r="O12" s="390"/>
       <c r="P12" s="110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q12" s="110"/>
       <c r="R12" s="110"/>
       <c r="S12" s="110"/>
       <c r="T12" s="111"/>
-      <c r="U12" s="393" t="s">
-        <v>112</v>
-      </c>
-      <c r="V12" s="394"/>
-      <c r="W12" s="394"/>
-      <c r="X12" s="394"/>
-      <c r="Y12" s="394"/>
-      <c r="Z12" s="394"/>
-      <c r="AA12" s="394"/>
-      <c r="AB12" s="394"/>
-      <c r="AC12" s="394"/>
-      <c r="AD12" s="394"/>
-      <c r="AE12" s="394"/>
-      <c r="AF12" s="394"/>
-      <c r="AG12" s="394"/>
-      <c r="AH12" s="394"/>
-      <c r="AI12" s="394"/>
-      <c r="AJ12" s="394"/>
-      <c r="AK12" s="394"/>
-      <c r="AL12" s="394"/>
-      <c r="AM12" s="394"/>
-      <c r="AN12" s="394"/>
-      <c r="AO12" s="394"/>
-      <c r="AP12" s="394"/>
-      <c r="AQ12" s="394"/>
-      <c r="AR12" s="394"/>
-      <c r="AS12" s="394"/>
-      <c r="AT12" s="394"/>
-      <c r="AU12" s="394"/>
-      <c r="AV12" s="394"/>
-      <c r="AW12" s="394"/>
-      <c r="AX12" s="394"/>
-      <c r="AY12" s="394"/>
-      <c r="AZ12" s="394"/>
-      <c r="BA12" s="394"/>
-      <c r="BB12" s="394"/>
-      <c r="BC12" s="395"/>
+      <c r="U12" s="385" t="s">
+        <v>111</v>
+      </c>
+      <c r="V12" s="386"/>
+      <c r="W12" s="386"/>
+      <c r="X12" s="386"/>
+      <c r="Y12" s="386"/>
+      <c r="Z12" s="386"/>
+      <c r="AA12" s="386"/>
+      <c r="AB12" s="386"/>
+      <c r="AC12" s="386"/>
+      <c r="AD12" s="386"/>
+      <c r="AE12" s="386"/>
+      <c r="AF12" s="386"/>
+      <c r="AG12" s="386"/>
+      <c r="AH12" s="386"/>
+      <c r="AI12" s="386"/>
+      <c r="AJ12" s="386"/>
+      <c r="AK12" s="386"/>
+      <c r="AL12" s="386"/>
+      <c r="AM12" s="386"/>
+      <c r="AN12" s="386"/>
+      <c r="AO12" s="386"/>
+      <c r="AP12" s="386"/>
+      <c r="AQ12" s="386"/>
+      <c r="AR12" s="386"/>
+      <c r="AS12" s="386"/>
+      <c r="AT12" s="386"/>
+      <c r="AU12" s="386"/>
+      <c r="AV12" s="386"/>
+      <c r="AW12" s="386"/>
+      <c r="AX12" s="386"/>
+      <c r="AY12" s="386"/>
+      <c r="AZ12" s="386"/>
+      <c r="BA12" s="386"/>
+      <c r="BB12" s="386"/>
+      <c r="BC12" s="387"/>
     </row>
     <row r="13" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="405">
-        <v>5</v>
-      </c>
-      <c r="B13" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="397"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="397"/>
-      <c r="F13" s="397"/>
-      <c r="G13" s="397"/>
-      <c r="H13" s="397"/>
-      <c r="I13" s="397"/>
-      <c r="J13" s="397"/>
-      <c r="K13" s="397"/>
-      <c r="L13" s="397"/>
-      <c r="M13" s="397"/>
-      <c r="N13" s="397"/>
-      <c r="O13" s="398"/>
+      <c r="A13" s="116">
+        <v>6</v>
+      </c>
+      <c r="B13" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="389"/>
+      <c r="D13" s="389"/>
+      <c r="E13" s="389"/>
+      <c r="F13" s="389"/>
+      <c r="G13" s="389"/>
+      <c r="H13" s="389"/>
+      <c r="I13" s="389"/>
+      <c r="J13" s="389"/>
+      <c r="K13" s="389"/>
+      <c r="L13" s="389"/>
+      <c r="M13" s="389"/>
+      <c r="N13" s="389"/>
+      <c r="O13" s="390"/>
       <c r="P13" s="112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="110"/>
       <c r="R13" s="110"/>
       <c r="S13" s="110"/>
       <c r="T13" s="111"/>
-      <c r="U13" s="393" t="s">
-        <v>113</v>
-      </c>
-      <c r="V13" s="394"/>
-      <c r="W13" s="394"/>
-      <c r="X13" s="394"/>
-      <c r="Y13" s="394"/>
-      <c r="Z13" s="394"/>
-      <c r="AA13" s="394"/>
-      <c r="AB13" s="394"/>
-      <c r="AC13" s="394"/>
-      <c r="AD13" s="394"/>
-      <c r="AE13" s="394"/>
-      <c r="AF13" s="394"/>
-      <c r="AG13" s="394"/>
-      <c r="AH13" s="394"/>
-      <c r="AI13" s="394"/>
-      <c r="AJ13" s="394"/>
-      <c r="AK13" s="394"/>
-      <c r="AL13" s="394"/>
-      <c r="AM13" s="394"/>
-      <c r="AN13" s="394"/>
-      <c r="AO13" s="394"/>
-      <c r="AP13" s="394"/>
-      <c r="AQ13" s="394"/>
-      <c r="AR13" s="394"/>
-      <c r="AS13" s="394"/>
-      <c r="AT13" s="394"/>
-      <c r="AU13" s="394"/>
-      <c r="AV13" s="394"/>
-      <c r="AW13" s="394"/>
-      <c r="AX13" s="394"/>
-      <c r="AY13" s="394"/>
-      <c r="AZ13" s="394"/>
-      <c r="BA13" s="394"/>
-      <c r="BB13" s="394"/>
-      <c r="BC13" s="395"/>
+      <c r="U13" s="385" t="s">
+        <v>112</v>
+      </c>
+      <c r="V13" s="386"/>
+      <c r="W13" s="386"/>
+      <c r="X13" s="386"/>
+      <c r="Y13" s="386"/>
+      <c r="Z13" s="386"/>
+      <c r="AA13" s="386"/>
+      <c r="AB13" s="386"/>
+      <c r="AC13" s="386"/>
+      <c r="AD13" s="386"/>
+      <c r="AE13" s="386"/>
+      <c r="AF13" s="386"/>
+      <c r="AG13" s="386"/>
+      <c r="AH13" s="386"/>
+      <c r="AI13" s="386"/>
+      <c r="AJ13" s="386"/>
+      <c r="AK13" s="386"/>
+      <c r="AL13" s="386"/>
+      <c r="AM13" s="386"/>
+      <c r="AN13" s="386"/>
+      <c r="AO13" s="386"/>
+      <c r="AP13" s="386"/>
+      <c r="AQ13" s="386"/>
+      <c r="AR13" s="386"/>
+      <c r="AS13" s="386"/>
+      <c r="AT13" s="386"/>
+      <c r="AU13" s="386"/>
+      <c r="AV13" s="386"/>
+      <c r="AW13" s="386"/>
+      <c r="AX13" s="386"/>
+      <c r="AY13" s="386"/>
+      <c r="AZ13" s="386"/>
+      <c r="BA13" s="386"/>
+      <c r="BB13" s="386"/>
+      <c r="BC13" s="387"/>
     </row>
     <row r="14" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="405"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="132"/>
+      <c r="A14" s="135">
+        <v>7</v>
+      </c>
+      <c r="B14" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="389"/>
+      <c r="D14" s="389"/>
+      <c r="E14" s="389"/>
+      <c r="F14" s="389"/>
+      <c r="G14" s="389"/>
+      <c r="H14" s="389"/>
+      <c r="I14" s="389"/>
+      <c r="J14" s="389"/>
+      <c r="K14" s="389"/>
+      <c r="L14" s="389"/>
+      <c r="M14" s="389"/>
+      <c r="N14" s="389"/>
+      <c r="O14" s="390"/>
       <c r="P14" s="112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="112"/>
       <c r="R14" s="112"/>
       <c r="S14" s="112"/>
-      <c r="T14" s="403"/>
-      <c r="U14" s="393" t="s">
-        <v>114</v>
-      </c>
-      <c r="V14" s="394"/>
-      <c r="W14" s="394"/>
-      <c r="X14" s="394"/>
-      <c r="Y14" s="394"/>
-      <c r="Z14" s="394"/>
-      <c r="AA14" s="394"/>
-      <c r="AB14" s="394"/>
-      <c r="AC14" s="394"/>
-      <c r="AD14" s="394"/>
-      <c r="AE14" s="394"/>
-      <c r="AF14" s="394"/>
-      <c r="AG14" s="394"/>
-      <c r="AH14" s="394"/>
-      <c r="AI14" s="394"/>
-      <c r="AJ14" s="394"/>
-      <c r="AK14" s="394"/>
-      <c r="AL14" s="394"/>
-      <c r="AM14" s="394"/>
-      <c r="AN14" s="394"/>
-      <c r="AO14" s="394"/>
-      <c r="AP14" s="394"/>
-      <c r="AQ14" s="394"/>
-      <c r="AR14" s="394"/>
-      <c r="AS14" s="394"/>
-      <c r="AT14" s="394"/>
-      <c r="AU14" s="394"/>
-      <c r="AV14" s="394"/>
-      <c r="AW14" s="394"/>
-      <c r="AX14" s="394"/>
-      <c r="AY14" s="394"/>
-      <c r="AZ14" s="394"/>
-      <c r="BA14" s="394"/>
-      <c r="BB14" s="394"/>
-      <c r="BC14" s="395"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="385" t="s">
+        <v>113</v>
+      </c>
+      <c r="V14" s="386"/>
+      <c r="W14" s="386"/>
+      <c r="X14" s="386"/>
+      <c r="Y14" s="386"/>
+      <c r="Z14" s="386"/>
+      <c r="AA14" s="386"/>
+      <c r="AB14" s="386"/>
+      <c r="AC14" s="386"/>
+      <c r="AD14" s="386"/>
+      <c r="AE14" s="386"/>
+      <c r="AF14" s="386"/>
+      <c r="AG14" s="386"/>
+      <c r="AH14" s="386"/>
+      <c r="AI14" s="386"/>
+      <c r="AJ14" s="386"/>
+      <c r="AK14" s="386"/>
+      <c r="AL14" s="386"/>
+      <c r="AM14" s="386"/>
+      <c r="AN14" s="386"/>
+      <c r="AO14" s="386"/>
+      <c r="AP14" s="386"/>
+      <c r="AQ14" s="386"/>
+      <c r="AR14" s="386"/>
+      <c r="AS14" s="386"/>
+      <c r="AT14" s="386"/>
+      <c r="AU14" s="386"/>
+      <c r="AV14" s="386"/>
+      <c r="AW14" s="386"/>
+      <c r="AX14" s="386"/>
+      <c r="AY14" s="386"/>
+      <c r="AZ14" s="386"/>
+      <c r="BA14" s="386"/>
+      <c r="BB14" s="386"/>
+      <c r="BC14" s="387"/>
     </row>
     <row r="15" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="405"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="132"/>
+      <c r="A15" s="116">
+        <v>8</v>
+      </c>
+      <c r="B15" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="389"/>
+      <c r="D15" s="389"/>
+      <c r="E15" s="389"/>
+      <c r="F15" s="389"/>
+      <c r="G15" s="389"/>
+      <c r="H15" s="389"/>
+      <c r="I15" s="389"/>
+      <c r="J15" s="389"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="389"/>
+      <c r="M15" s="389"/>
+      <c r="N15" s="389"/>
+      <c r="O15" s="390"/>
       <c r="P15" s="112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="112"/>
       <c r="R15" s="112"/>
       <c r="S15" s="112"/>
-      <c r="T15" s="403"/>
-      <c r="U15" s="393" t="s">
-        <v>115</v>
-      </c>
-      <c r="V15" s="394"/>
-      <c r="W15" s="394"/>
-      <c r="X15" s="394"/>
-      <c r="Y15" s="394"/>
-      <c r="Z15" s="394"/>
-      <c r="AA15" s="394"/>
-      <c r="AB15" s="394"/>
-      <c r="AC15" s="394"/>
-      <c r="AD15" s="394"/>
-      <c r="AE15" s="394"/>
-      <c r="AF15" s="394"/>
-      <c r="AG15" s="394"/>
-      <c r="AH15" s="394"/>
-      <c r="AI15" s="394"/>
-      <c r="AJ15" s="394"/>
-      <c r="AK15" s="394"/>
-      <c r="AL15" s="394"/>
-      <c r="AM15" s="394"/>
-      <c r="AN15" s="394"/>
-      <c r="AO15" s="394"/>
-      <c r="AP15" s="394"/>
-      <c r="AQ15" s="394"/>
-      <c r="AR15" s="394"/>
-      <c r="AS15" s="394"/>
-      <c r="AT15" s="394"/>
-      <c r="AU15" s="394"/>
-      <c r="AV15" s="394"/>
-      <c r="AW15" s="394"/>
-      <c r="AX15" s="394"/>
-      <c r="AY15" s="394"/>
-      <c r="AZ15" s="394"/>
-      <c r="BA15" s="394"/>
-      <c r="BB15" s="394"/>
-      <c r="BC15" s="395"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="385" t="s">
+        <v>114</v>
+      </c>
+      <c r="V15" s="386"/>
+      <c r="W15" s="386"/>
+      <c r="X15" s="386"/>
+      <c r="Y15" s="386"/>
+      <c r="Z15" s="386"/>
+      <c r="AA15" s="386"/>
+      <c r="AB15" s="386"/>
+      <c r="AC15" s="386"/>
+      <c r="AD15" s="386"/>
+      <c r="AE15" s="386"/>
+      <c r="AF15" s="386"/>
+      <c r="AG15" s="386"/>
+      <c r="AH15" s="386"/>
+      <c r="AI15" s="386"/>
+      <c r="AJ15" s="386"/>
+      <c r="AK15" s="386"/>
+      <c r="AL15" s="386"/>
+      <c r="AM15" s="386"/>
+      <c r="AN15" s="386"/>
+      <c r="AO15" s="386"/>
+      <c r="AP15" s="386"/>
+      <c r="AQ15" s="386"/>
+      <c r="AR15" s="386"/>
+      <c r="AS15" s="386"/>
+      <c r="AT15" s="386"/>
+      <c r="AU15" s="386"/>
+      <c r="AV15" s="386"/>
+      <c r="AW15" s="386"/>
+      <c r="AX15" s="386"/>
+      <c r="AY15" s="386"/>
+      <c r="AZ15" s="386"/>
+      <c r="BA15" s="386"/>
+      <c r="BB15" s="386"/>
+      <c r="BC15" s="387"/>
     </row>
     <row r="16" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="116">
-        <v>6</v>
-      </c>
-      <c r="B16" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="397"/>
-      <c r="D16" s="397"/>
-      <c r="E16" s="397"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="397"/>
-      <c r="H16" s="397"/>
-      <c r="I16" s="397"/>
-      <c r="J16" s="397"/>
-      <c r="K16" s="397"/>
-      <c r="L16" s="397"/>
-      <c r="M16" s="397"/>
-      <c r="N16" s="397"/>
-      <c r="O16" s="398"/>
+      <c r="A16" s="135">
+        <v>9</v>
+      </c>
+      <c r="B16" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="389"/>
+      <c r="D16" s="389"/>
+      <c r="E16" s="389"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="389"/>
+      <c r="H16" s="389"/>
+      <c r="I16" s="389"/>
+      <c r="J16" s="389"/>
+      <c r="K16" s="389"/>
+      <c r="L16" s="389"/>
+      <c r="M16" s="389"/>
+      <c r="N16" s="389"/>
+      <c r="O16" s="390"/>
       <c r="P16" s="113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="113"/>
       <c r="R16" s="113"/>
       <c r="S16" s="113"/>
       <c r="T16" s="114"/>
-      <c r="U16" s="393" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" s="394"/>
-      <c r="W16" s="394"/>
-      <c r="X16" s="394"/>
-      <c r="Y16" s="394"/>
-      <c r="Z16" s="394"/>
-      <c r="AA16" s="394"/>
-      <c r="AB16" s="394"/>
-      <c r="AC16" s="394"/>
-      <c r="AD16" s="394"/>
-      <c r="AE16" s="394"/>
-      <c r="AF16" s="394"/>
-      <c r="AG16" s="394"/>
-      <c r="AH16" s="394"/>
-      <c r="AI16" s="394"/>
-      <c r="AJ16" s="394"/>
-      <c r="AK16" s="394"/>
-      <c r="AL16" s="394"/>
-      <c r="AM16" s="394"/>
-      <c r="AN16" s="394"/>
-      <c r="AO16" s="394"/>
-      <c r="AP16" s="394"/>
-      <c r="AQ16" s="394"/>
-      <c r="AR16" s="394"/>
-      <c r="AS16" s="394"/>
-      <c r="AT16" s="394"/>
-      <c r="AU16" s="394"/>
-      <c r="AV16" s="394"/>
-      <c r="AW16" s="394"/>
-      <c r="AX16" s="394"/>
-      <c r="AY16" s="394"/>
-      <c r="AZ16" s="394"/>
-      <c r="BA16" s="394"/>
-      <c r="BB16" s="394"/>
-      <c r="BC16" s="395"/>
+      <c r="U16" s="385" t="s">
+        <v>116</v>
+      </c>
+      <c r="V16" s="386"/>
+      <c r="W16" s="386"/>
+      <c r="X16" s="386"/>
+      <c r="Y16" s="386"/>
+      <c r="Z16" s="386"/>
+      <c r="AA16" s="386"/>
+      <c r="AB16" s="386"/>
+      <c r="AC16" s="386"/>
+      <c r="AD16" s="386"/>
+      <c r="AE16" s="386"/>
+      <c r="AF16" s="386"/>
+      <c r="AG16" s="386"/>
+      <c r="AH16" s="386"/>
+      <c r="AI16" s="386"/>
+      <c r="AJ16" s="386"/>
+      <c r="AK16" s="386"/>
+      <c r="AL16" s="386"/>
+      <c r="AM16" s="386"/>
+      <c r="AN16" s="386"/>
+      <c r="AO16" s="386"/>
+      <c r="AP16" s="386"/>
+      <c r="AQ16" s="386"/>
+      <c r="AR16" s="386"/>
+      <c r="AS16" s="386"/>
+      <c r="AT16" s="386"/>
+      <c r="AU16" s="386"/>
+      <c r="AV16" s="386"/>
+      <c r="AW16" s="386"/>
+      <c r="AX16" s="386"/>
+      <c r="AY16" s="386"/>
+      <c r="AZ16" s="386"/>
+      <c r="BA16" s="386"/>
+      <c r="BB16" s="386"/>
+      <c r="BC16" s="387"/>
     </row>
     <row r="17" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="405">
-        <v>7</v>
-      </c>
-      <c r="B17" s="396" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="397"/>
-      <c r="D17" s="397"/>
-      <c r="E17" s="397"/>
-      <c r="F17" s="397"/>
-      <c r="G17" s="397"/>
-      <c r="H17" s="397"/>
-      <c r="I17" s="397"/>
-      <c r="J17" s="397"/>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
-      <c r="M17" s="397"/>
-      <c r="N17" s="397"/>
-      <c r="O17" s="398"/>
+      <c r="A17" s="116">
+        <v>10</v>
+      </c>
+      <c r="B17" s="388" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="389"/>
+      <c r="D17" s="389"/>
+      <c r="E17" s="389"/>
+      <c r="F17" s="389"/>
+      <c r="G17" s="389"/>
+      <c r="H17" s="389"/>
+      <c r="I17" s="389"/>
+      <c r="J17" s="389"/>
+      <c r="K17" s="389"/>
+      <c r="L17" s="389"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="389"/>
+      <c r="O17" s="390"/>
       <c r="P17" s="113" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="113"/>
       <c r="R17" s="113"/>
       <c r="S17" s="113"/>
       <c r="T17" s="114"/>
-      <c r="U17" s="393" t="s">
+      <c r="U17" s="385" t="s">
+        <v>96</v>
+      </c>
+      <c r="V17" s="386"/>
+      <c r="W17" s="386"/>
+      <c r="X17" s="386"/>
+      <c r="Y17" s="386"/>
+      <c r="Z17" s="386"/>
+      <c r="AA17" s="386"/>
+      <c r="AB17" s="386"/>
+      <c r="AC17" s="386"/>
+      <c r="AD17" s="386"/>
+      <c r="AE17" s="386"/>
+      <c r="AF17" s="386"/>
+      <c r="AG17" s="386"/>
+      <c r="AH17" s="386"/>
+      <c r="AI17" s="386"/>
+      <c r="AJ17" s="386"/>
+      <c r="AK17" s="386"/>
+      <c r="AL17" s="386"/>
+      <c r="AM17" s="386"/>
+      <c r="AN17" s="386"/>
+      <c r="AO17" s="386"/>
+      <c r="AP17" s="386"/>
+      <c r="AQ17" s="386"/>
+      <c r="AR17" s="386"/>
+      <c r="AS17" s="386"/>
+      <c r="AT17" s="386"/>
+      <c r="AU17" s="386"/>
+      <c r="AV17" s="386"/>
+      <c r="AW17" s="386"/>
+      <c r="AX17" s="386"/>
+      <c r="AY17" s="386"/>
+      <c r="AZ17" s="386"/>
+      <c r="BA17" s="386"/>
+      <c r="BB17" s="386"/>
+      <c r="BC17" s="387"/>
+    </row>
+    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="403">
+        <v>11</v>
+      </c>
+      <c r="B18" s="388" t="s">
         <v>97</v>
       </c>
-      <c r="V17" s="394"/>
-      <c r="W17" s="394"/>
-      <c r="X17" s="394"/>
-      <c r="Y17" s="394"/>
-      <c r="Z17" s="394"/>
-      <c r="AA17" s="394"/>
-      <c r="AB17" s="394"/>
-      <c r="AC17" s="394"/>
-      <c r="AD17" s="394"/>
-      <c r="AE17" s="394"/>
-      <c r="AF17" s="394"/>
-      <c r="AG17" s="394"/>
-      <c r="AH17" s="394"/>
-      <c r="AI17" s="394"/>
-      <c r="AJ17" s="394"/>
-      <c r="AK17" s="394"/>
-      <c r="AL17" s="394"/>
-      <c r="AM17" s="394"/>
-      <c r="AN17" s="394"/>
-      <c r="AO17" s="394"/>
-      <c r="AP17" s="394"/>
-      <c r="AQ17" s="394"/>
-      <c r="AR17" s="394"/>
-      <c r="AS17" s="394"/>
-      <c r="AT17" s="394"/>
-      <c r="AU17" s="394"/>
-      <c r="AV17" s="394"/>
-      <c r="AW17" s="394"/>
-      <c r="AX17" s="394"/>
-      <c r="AY17" s="394"/>
-      <c r="AZ17" s="394"/>
-      <c r="BA17" s="394"/>
-      <c r="BB17" s="394"/>
-      <c r="BC17" s="395"/>
-    </row>
-    <row r="18" spans="1:55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="407"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="404" t="s">
-        <v>103</v>
+      <c r="C18" s="389"/>
+      <c r="D18" s="389"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="389"/>
+      <c r="G18" s="389"/>
+      <c r="H18" s="389"/>
+      <c r="I18" s="389"/>
+      <c r="J18" s="389"/>
+      <c r="K18" s="389"/>
+      <c r="L18" s="389"/>
+      <c r="M18" s="389"/>
+      <c r="N18" s="389"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="134" t="s">
+        <v>102</v>
       </c>
       <c r="Q18" s="113"/>
       <c r="R18" s="113"/>
       <c r="S18" s="113"/>
       <c r="T18" s="114"/>
-      <c r="U18" s="393" t="s">
-        <v>116</v>
-      </c>
-      <c r="V18" s="394"/>
-      <c r="W18" s="394"/>
-      <c r="X18" s="394"/>
-      <c r="Y18" s="394"/>
-      <c r="Z18" s="394"/>
-      <c r="AA18" s="394"/>
-      <c r="AB18" s="394"/>
-      <c r="AC18" s="394"/>
-      <c r="AD18" s="394"/>
-      <c r="AE18" s="394"/>
-      <c r="AF18" s="394"/>
-      <c r="AG18" s="394"/>
-      <c r="AH18" s="394"/>
-      <c r="AI18" s="394"/>
-      <c r="AJ18" s="394"/>
-      <c r="AK18" s="394"/>
-      <c r="AL18" s="394"/>
-      <c r="AM18" s="394"/>
-      <c r="AN18" s="394"/>
-      <c r="AO18" s="394"/>
-      <c r="AP18" s="394"/>
-      <c r="AQ18" s="394"/>
-      <c r="AR18" s="394"/>
-      <c r="AS18" s="394"/>
-      <c r="AT18" s="394"/>
-      <c r="AU18" s="394"/>
-      <c r="AV18" s="394"/>
-      <c r="AW18" s="394"/>
-      <c r="AX18" s="394"/>
-      <c r="AY18" s="394"/>
-      <c r="AZ18" s="394"/>
-      <c r="BA18" s="394"/>
-      <c r="BB18" s="394"/>
-      <c r="BC18" s="395"/>
+      <c r="U18" s="385" t="s">
+        <v>115</v>
+      </c>
+      <c r="V18" s="386"/>
+      <c r="W18" s="386"/>
+      <c r="X18" s="386"/>
+      <c r="Y18" s="386"/>
+      <c r="Z18" s="386"/>
+      <c r="AA18" s="386"/>
+      <c r="AB18" s="386"/>
+      <c r="AC18" s="386"/>
+      <c r="AD18" s="386"/>
+      <c r="AE18" s="386"/>
+      <c r="AF18" s="386"/>
+      <c r="AG18" s="386"/>
+      <c r="AH18" s="386"/>
+      <c r="AI18" s="386"/>
+      <c r="AJ18" s="386"/>
+      <c r="AK18" s="386"/>
+      <c r="AL18" s="386"/>
+      <c r="AM18" s="386"/>
+      <c r="AN18" s="386"/>
+      <c r="AO18" s="386"/>
+      <c r="AP18" s="386"/>
+      <c r="AQ18" s="386"/>
+      <c r="AR18" s="386"/>
+      <c r="AS18" s="386"/>
+      <c r="AT18" s="386"/>
+      <c r="AU18" s="386"/>
+      <c r="AV18" s="386"/>
+      <c r="AW18" s="386"/>
+      <c r="AX18" s="386"/>
+      <c r="AY18" s="386"/>
+      <c r="AZ18" s="386"/>
+      <c r="BA18" s="386"/>
+      <c r="BB18" s="386"/>
+      <c r="BC18" s="387"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="U14:BC14"/>
-    <mergeCell ref="U15:BC15"/>
-    <mergeCell ref="U18:BC18"/>
-    <mergeCell ref="U16:BC16"/>
-    <mergeCell ref="U17:BC17"/>
+  <mergeCells count="42">
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AT4"/>
+    <mergeCell ref="AU4:AW4"/>
+    <mergeCell ref="AX4:BC4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="P5:U5"/>
+    <mergeCell ref="V5:AK5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AO5:AT5"/>
+    <mergeCell ref="AU5:AW5"/>
+    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AK4"/>
     <mergeCell ref="B16:O16"/>
     <mergeCell ref="B17:O17"/>
     <mergeCell ref="U7:BC7"/>
@@ -14778,23 +14798,11 @@
     <mergeCell ref="U13:BC13"/>
     <mergeCell ref="U12:BC12"/>
     <mergeCell ref="U10:BC10"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AK4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AT4"/>
-    <mergeCell ref="AU4:AW4"/>
-    <mergeCell ref="AX4:BC4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="P5:U5"/>
-    <mergeCell ref="V5:AK5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AO5:AT5"/>
-    <mergeCell ref="AU5:AW5"/>
-    <mergeCell ref="AX5:BC5"/>
+    <mergeCell ref="U14:BC14"/>
+    <mergeCell ref="U15:BC15"/>
+    <mergeCell ref="U18:BC18"/>
+    <mergeCell ref="U16:BC16"/>
+    <mergeCell ref="U17:BC17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
